--- a/2023/morocco_botola-pro_2023-2024.xlsx
+++ b/2023/morocco_botola-pro_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V39"/>
+  <dimension ref="A1:V40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1493,22 +1493,22 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Mouloudia Oujda</t>
+          <t>Moghreb Tetouan</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Union Touarga</t>
+          <t>Olympique de Safi</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>2.25</v>
+        <v>3.02</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1516,15 +1516,15 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>2.83</v>
+        <v>3.59</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>02/09/2023 21:14</t>
+          <t>02/09/2023 21:20</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>3.04</v>
+        <v>2.8</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1532,15 +1532,15 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>2.52</v>
+        <v>2.75</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>02/09/2023 21:14</t>
+          <t>02/09/2023 21:20</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>3.02</v>
+        <v>2.4</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
@@ -1548,16 +1548,16 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>3.11</v>
+        <v>2.33</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>02/09/2023 21:14</t>
+          <t>02/09/2023 21:20</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/morocco/botola-pro/mouloudia-oujda-union-touarga/4dV07lLh/</t>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/moghreb-tetouan-olympique-de-safi/Q5Wd8U5n/</t>
         </is>
       </c>
     </row>
@@ -1585,71 +1585,71 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Moghreb Tetouan</t>
+          <t>Mouloudia Oujda</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Olympique de Safi</t>
+          <t>Union Touarga</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J13" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>01/09/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>02/09/2023 21:14</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>01/09/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P13" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>02/09/2023 21:14</t>
+        </is>
+      </c>
+      <c r="R13" t="n">
         <v>3.02</v>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="S13" t="inlineStr">
         <is>
           <t>01/09/2023 16:42</t>
         </is>
       </c>
-      <c r="L13" t="n">
-        <v>3.59</v>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>02/09/2023 21:20</t>
-        </is>
-      </c>
-      <c r="N13" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>01/09/2023 16:42</t>
-        </is>
-      </c>
-      <c r="P13" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>02/09/2023 21:20</t>
-        </is>
-      </c>
-      <c r="R13" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>01/09/2023 16:42</t>
-        </is>
-      </c>
       <c r="T13" t="n">
-        <v>2.33</v>
+        <v>3.11</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>02/09/2023 21:20</t>
+          <t>02/09/2023 21:14</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/morocco/botola-pro/moghreb-tetouan-olympique-de-safi/Q5Wd8U5n/</t>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/mouloudia-oujda-union-touarga/4dV07lLh/</t>
         </is>
       </c>
     </row>
@@ -3701,71 +3701,71 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Maghreb Fez</t>
+          <t>Youssoufia Berrechid</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Jeunesse Sportive Soualem</t>
+          <t>Mouloudia Oujda</t>
         </is>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>2.09</v>
+        <v>2.28</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>30/09/2023 06:42</t>
+          <t>01/10/2023 04:42</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>2.01</v>
+        <v>2.05</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>01/10/2023 19:13</t>
+          <t>01/10/2023 19:11</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>30/09/2023 06:42</t>
+          <t>01/10/2023 04:42</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.03</v>
+        <v>2.99</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>01/10/2023 19:01</t>
+          <t>01/10/2023 19:11</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>3.56</v>
+        <v>3.29</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>30/09/2023 06:42</t>
+          <t>01/10/2023 04:42</t>
         </is>
       </c>
       <c r="T36" t="n">
-        <v>4.13</v>
+        <v>4.02</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>01/10/2023 19:13</t>
+          <t>01/10/2023 19:11</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/morocco/botola-pro/maghreb-fez-jeunesse-sportive-soualem/OYJ1YDS0/</t>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/youssoufia-berrechid-mouloudia-oujda/IeJ5XXs7/</t>
         </is>
       </c>
     </row>
@@ -3793,71 +3793,71 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Youssoufia Berrechid</t>
+          <t>Maghreb Fez</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Mouloudia Oujda</t>
+          <t>Jeunesse Sportive Soualem</t>
         </is>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>2.28</v>
+        <v>2.09</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>01/10/2023 04:42</t>
+          <t>30/09/2023 06:42</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>2.05</v>
+        <v>2.01</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>01/10/2023 19:11</t>
+          <t>01/10/2023 19:13</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>01/10/2023 04:42</t>
+          <t>30/09/2023 06:42</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>2.99</v>
+        <v>3.03</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>01/10/2023 19:11</t>
+          <t>01/10/2023 19:01</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>3.29</v>
+        <v>3.56</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>01/10/2023 04:42</t>
+          <t>30/09/2023 06:42</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>4.02</v>
+        <v>4.13</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>01/10/2023 19:11</t>
+          <t>01/10/2023 19:13</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/morocco/botola-pro/youssoufia-berrechid-mouloudia-oujda/IeJ5XXs7/</t>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/maghreb-fez-jeunesse-sportive-soualem/OYJ1YDS0/</t>
         </is>
       </c>
     </row>
@@ -4042,6 +4042,98 @@
       <c r="V39" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/morocco/botola-pro/wydad-athletic-renaissance-zemamra/Y31heyzE/</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>morocco</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>botola-pro</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>45203.89583333334</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>FAR Rabat</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Berkane</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>03/10/2023 08:42</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>04/10/2023 19:33</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>03/10/2023 08:42</t>
+        </is>
+      </c>
+      <c r="P40" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>04/10/2023 21:02</t>
+        </is>
+      </c>
+      <c r="R40" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>03/10/2023 08:42</t>
+        </is>
+      </c>
+      <c r="T40" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>04/10/2023 21:02</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/far-rabat-berkane/Cf0dfekK/</t>
         </is>
       </c>
     </row>

--- a/2023/morocco_botola-pro_2023-2024.xlsx
+++ b/2023/morocco_botola-pro_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V40"/>
+  <dimension ref="A1:V41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4137,6 +4137,98 @@
         </is>
       </c>
     </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>morocco</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>botola-pro</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>45204.875</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Moghreb Tetouan</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>2</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>FUS Rabat</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>04/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>05/10/2023 20:53</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>04/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="P41" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>05/10/2023 20:53</t>
+        </is>
+      </c>
+      <c r="R41" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>04/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="T41" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>05/10/2023 20:53</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/moghreb-tetouan-fus-rabat/KKa0gF4Q/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/morocco_botola-pro_2023-2024.xlsx
+++ b/2023/morocco_botola-pro_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V41"/>
+  <dimension ref="A1:V42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1493,71 +1493,71 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Moghreb Tetouan</t>
+          <t>Mouloudia Oujda</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Olympique de Safi</t>
+          <t>Union Touarga</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J12" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>01/09/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>02/09/2023 21:14</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>01/09/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P12" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>02/09/2023 21:14</t>
+        </is>
+      </c>
+      <c r="R12" t="n">
         <v>3.02</v>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>01/09/2023 16:42</t>
         </is>
       </c>
-      <c r="L12" t="n">
-        <v>3.59</v>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>02/09/2023 21:20</t>
-        </is>
-      </c>
-      <c r="N12" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>01/09/2023 16:42</t>
-        </is>
-      </c>
-      <c r="P12" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>02/09/2023 21:20</t>
-        </is>
-      </c>
-      <c r="R12" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>01/09/2023 16:42</t>
-        </is>
-      </c>
       <c r="T12" t="n">
-        <v>2.33</v>
+        <v>3.11</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>02/09/2023 21:20</t>
+          <t>02/09/2023 21:14</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/morocco/botola-pro/moghreb-tetouan-olympique-de-safi/Q5Wd8U5n/</t>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/mouloudia-oujda-union-touarga/4dV07lLh/</t>
         </is>
       </c>
     </row>
@@ -1585,22 +1585,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Mouloudia Oujda</t>
+          <t>Moghreb Tetouan</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Union Touarga</t>
+          <t>Olympique de Safi</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>2.25</v>
+        <v>3.02</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1608,15 +1608,15 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>2.83</v>
+        <v>3.59</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>02/09/2023 21:14</t>
+          <t>02/09/2023 21:20</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.04</v>
+        <v>2.8</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1624,15 +1624,15 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>2.52</v>
+        <v>2.75</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>02/09/2023 21:14</t>
+          <t>02/09/2023 21:20</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>3.02</v>
+        <v>2.4</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
@@ -1640,16 +1640,16 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>3.11</v>
+        <v>2.33</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>02/09/2023 21:14</t>
+          <t>02/09/2023 21:20</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/morocco/botola-pro/mouloudia-oujda-union-touarga/4dV07lLh/</t>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/moghreb-tetouan-olympique-de-safi/Q5Wd8U5n/</t>
         </is>
       </c>
     </row>
@@ -4226,6 +4226,98 @@
       <c r="V41" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/morocco/botola-pro/moghreb-tetouan-fus-rabat/KKa0gF4Q/</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>morocco</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>botola-pro</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>45205.89583333334</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Chabab Mohammedia</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>3</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Hassania Agadir</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:42</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>06/10/2023 17:35</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:42</t>
+        </is>
+      </c>
+      <c r="P42" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>06/10/2023 19:35</t>
+        </is>
+      </c>
+      <c r="R42" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>05/10/2023 08:42</t>
+        </is>
+      </c>
+      <c r="T42" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>06/10/2023 17:35</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/chabab-mohammedia-hassania-agadir/nc07VTBS/</t>
         </is>
       </c>
     </row>

--- a/2023/morocco_botola-pro_2023-2024.xlsx
+++ b/2023/morocco_botola-pro_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V42"/>
+  <dimension ref="A1:V45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4321,6 +4321,282 @@
         </is>
       </c>
     </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>morocco</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>botola-pro</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>45206.70833333334</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Union Touarga</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>2</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>FAR Rabat</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>1</v>
+      </c>
+      <c r="J43" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>06/10/2023 04:12</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:38</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>06/10/2023 04:12</t>
+        </is>
+      </c>
+      <c r="P43" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:38</t>
+        </is>
+      </c>
+      <c r="R43" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>06/10/2023 04:12</t>
+        </is>
+      </c>
+      <c r="T43" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:38</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/union-touarga-far-rabat/l6nZQmKq/</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>morocco</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>botola-pro</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>45206.80208333334</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Mouloudia Oujda</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>1</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Maghreb Fez</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>3</v>
+      </c>
+      <c r="J44" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>06/10/2023 06:42</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>07/10/2023 18:55</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>06/10/2023 06:42</t>
+        </is>
+      </c>
+      <c r="P44" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>07/10/2023 18:55</t>
+        </is>
+      </c>
+      <c r="R44" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>06/10/2023 06:42</t>
+        </is>
+      </c>
+      <c r="T44" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>07/10/2023 18:55</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/mouloudia-oujda-maghreb-fez/rTowQ7Zk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>morocco</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>botola-pro</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>45206.89583333334</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>IR Tanger</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Wydad</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>3</v>
+      </c>
+      <c r="J45" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>06/10/2023 08:42</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>07/10/2023 20:24</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>06/10/2023 08:42</t>
+        </is>
+      </c>
+      <c r="P45" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>07/10/2023 20:24</t>
+        </is>
+      </c>
+      <c r="R45" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>06/10/2023 08:42</t>
+        </is>
+      </c>
+      <c r="T45" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>07/10/2023 20:24</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/ir-tanger-wydad-athletic/dWksPRld/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/morocco_botola-pro_2023-2024.xlsx
+++ b/2023/morocco_botola-pro_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V45"/>
+  <dimension ref="A1:V49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1769,22 +1769,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>FUS Rabat</t>
+          <t>Berkane</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Maghreb Fez</t>
+          <t>IR Tanger</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>1.73</v>
+        <v>1.98</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.85</v>
+        <v>1.56</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>03/09/2023 20:10</t>
+          <t>03/09/2023 20:08</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.23</v>
+        <v>3.11</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,15 +1808,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>2.83</v>
+        <v>3.59</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>03/09/2023 20:10</t>
+          <t>03/09/2023 20:08</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>5.25</v>
+        <v>3.96</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>5.19</v>
+        <v>6.56</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>03/09/2023 20:10</t>
+          <t>03/09/2023 20:08</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/morocco/botola-pro/fus-rabat-maghreb-fez/Obo25Sk5/</t>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/berkane-ir-tanger/ILp64n5B/</t>
         </is>
       </c>
     </row>
@@ -1861,22 +1861,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Berkane</t>
+          <t>FUS Rabat</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>IR Tanger</t>
+          <t>Maghreb Fez</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1.98</v>
+        <v>1.73</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,15 +1884,15 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1.56</v>
+        <v>1.85</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>03/09/2023 20:08</t>
+          <t>03/09/2023 20:10</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.11</v>
+        <v>3.23</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,15 +1900,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.59</v>
+        <v>2.83</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>03/09/2023 20:08</t>
+          <t>03/09/2023 20:10</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>3.96</v>
+        <v>5.25</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>6.56</v>
+        <v>5.19</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>03/09/2023 20:08</t>
+          <t>03/09/2023 20:10</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/morocco/botola-pro/berkane-ir-tanger/ILp64n5B/</t>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/fus-rabat-maghreb-fez/Obo25Sk5/</t>
         </is>
       </c>
     </row>
@@ -4594,6 +4594,374 @@
       <c r="V45" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/morocco/botola-pro/ir-tanger-wydad-athletic/dWksPRld/</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>morocco</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>botola-pro</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>45207.70833333334</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Jeunesse Sportive Soualem</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>1</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>FUS Rabat</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>3</v>
+      </c>
+      <c r="J46" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>07/10/2023 04:13</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>08/10/2023 16:59</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>07/10/2023 04:13</t>
+        </is>
+      </c>
+      <c r="P46" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>08/10/2023 16:59</t>
+        </is>
+      </c>
+      <c r="R46" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>07/10/2023 04:13</t>
+        </is>
+      </c>
+      <c r="T46" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:38</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/jeunesse-sportive-soualem-fus-rabat/byUPmBRd/</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>morocco</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>botola-pro</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>45207.80208333334</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Berkane</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>3</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Youssoufia Berrechid</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>08/10/2023 04:12</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>08/10/2023 18:54</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>08/10/2023 04:12</t>
+        </is>
+      </c>
+      <c r="P47" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>08/10/2023 18:54</t>
+        </is>
+      </c>
+      <c r="R47" t="n">
+        <v>7.84</v>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>08/10/2023 04:12</t>
+        </is>
+      </c>
+      <c r="T47" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>08/10/2023 18:54</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/berkane-youssoufia-berrechid/W2sXokd9/</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>morocco</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>botola-pro</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>45207.80208333334</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Renaissance Zemamra</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>3</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Olympique de Safi</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>2</v>
+      </c>
+      <c r="J48" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>08/10/2023 04:12</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>08/10/2023 19:14</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>08/10/2023 04:12</t>
+        </is>
+      </c>
+      <c r="P48" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>08/10/2023 19:14</t>
+        </is>
+      </c>
+      <c r="R48" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>08/10/2023 04:12</t>
+        </is>
+      </c>
+      <c r="T48" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>08/10/2023 19:14</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/renaissance-zemamra-olympique-de-safi/xSSTnVt3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>morocco</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>botola-pro</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>45207.89583333334</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Raja Casablanca</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>1</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Moghreb Tetouan</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>07/10/2023 08:43</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>08/10/2023 21:27</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>07/10/2023 08:43</t>
+        </is>
+      </c>
+      <c r="P49" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>08/10/2023 21:27</t>
+        </is>
+      </c>
+      <c r="R49" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>07/10/2023 08:43</t>
+        </is>
+      </c>
+      <c r="T49" t="n">
+        <v>9.41</v>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>08/10/2023 21:27</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/raja-casablanca-moghreb-tetouan/Agtyo9BF/</t>
         </is>
       </c>
     </row>

--- a/2023/morocco_botola-pro_2023-2024.xlsx
+++ b/2023/morocco_botola-pro_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V49"/>
+  <dimension ref="A1:V55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1493,22 +1493,22 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Mouloudia Oujda</t>
+          <t>Moghreb Tetouan</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Union Touarga</t>
+          <t>Olympique de Safi</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>2.25</v>
+        <v>3.02</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1516,15 +1516,15 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>2.83</v>
+        <v>3.59</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>02/09/2023 21:14</t>
+          <t>02/09/2023 21:20</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>3.04</v>
+        <v>2.8</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1532,15 +1532,15 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>2.52</v>
+        <v>2.75</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>02/09/2023 21:14</t>
+          <t>02/09/2023 21:20</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>3.02</v>
+        <v>2.4</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
@@ -1548,16 +1548,16 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>3.11</v>
+        <v>2.33</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>02/09/2023 21:14</t>
+          <t>02/09/2023 21:20</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/morocco/botola-pro/mouloudia-oujda-union-touarga/4dV07lLh/</t>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/moghreb-tetouan-olympique-de-safi/Q5Wd8U5n/</t>
         </is>
       </c>
     </row>
@@ -1585,71 +1585,71 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Moghreb Tetouan</t>
+          <t>Mouloudia Oujda</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Olympique de Safi</t>
+          <t>Union Touarga</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J13" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>01/09/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>02/09/2023 21:14</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>01/09/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P13" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>02/09/2023 21:14</t>
+        </is>
+      </c>
+      <c r="R13" t="n">
         <v>3.02</v>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="S13" t="inlineStr">
         <is>
           <t>01/09/2023 16:42</t>
         </is>
       </c>
-      <c r="L13" t="n">
-        <v>3.59</v>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>02/09/2023 21:20</t>
-        </is>
-      </c>
-      <c r="N13" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>01/09/2023 16:42</t>
-        </is>
-      </c>
-      <c r="P13" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>02/09/2023 21:20</t>
-        </is>
-      </c>
-      <c r="R13" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>01/09/2023 16:42</t>
-        </is>
-      </c>
       <c r="T13" t="n">
-        <v>2.33</v>
+        <v>3.11</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>02/09/2023 21:20</t>
+          <t>02/09/2023 21:14</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/morocco/botola-pro/moghreb-tetouan-olympique-de-safi/Q5Wd8U5n/</t>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/mouloudia-oujda-union-touarga/4dV07lLh/</t>
         </is>
       </c>
     </row>
@@ -1769,22 +1769,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Berkane</t>
+          <t>FUS Rabat</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>IR Tanger</t>
+          <t>Maghreb Fez</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.98</v>
+        <v>1.73</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.56</v>
+        <v>1.85</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>03/09/2023 20:08</t>
+          <t>03/09/2023 20:10</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.11</v>
+        <v>3.23</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,15 +1808,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.59</v>
+        <v>2.83</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>03/09/2023 20:08</t>
+          <t>03/09/2023 20:10</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>3.96</v>
+        <v>5.25</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>6.56</v>
+        <v>5.19</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>03/09/2023 20:08</t>
+          <t>03/09/2023 20:10</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/morocco/botola-pro/berkane-ir-tanger/ILp64n5B/</t>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/fus-rabat-maghreb-fez/Obo25Sk5/</t>
         </is>
       </c>
     </row>
@@ -1861,22 +1861,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>FUS Rabat</t>
+          <t>Berkane</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Maghreb Fez</t>
+          <t>IR Tanger</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>1.73</v>
+        <v>1.98</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,15 +1884,15 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1.85</v>
+        <v>1.56</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>03/09/2023 20:10</t>
+          <t>03/09/2023 20:08</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.23</v>
+        <v>3.11</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,15 +1900,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>2.83</v>
+        <v>3.59</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>03/09/2023 20:10</t>
+          <t>03/09/2023 20:08</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>5.25</v>
+        <v>3.96</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>5.19</v>
+        <v>6.56</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>03/09/2023 20:10</t>
+          <t>03/09/2023 20:08</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/morocco/botola-pro/fus-rabat-maghreb-fez/Obo25Sk5/</t>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/berkane-ir-tanger/ILp64n5B/</t>
         </is>
       </c>
     </row>
@@ -4962,6 +4962,558 @@
       <c r="V49" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/morocco/botola-pro/raja-casablanca-moghreb-tetouan/Agtyo9BF/</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>morocco</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>botola-pro</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>45227.70833333334</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Hassania Agadir</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>2</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Renaissance Zemamra</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>2</v>
+      </c>
+      <c r="J50" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>27/10/2023 05:12</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>28/10/2023 16:58</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>27/10/2023 05:12</t>
+        </is>
+      </c>
+      <c r="P50" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>28/10/2023 16:58</t>
+        </is>
+      </c>
+      <c r="R50" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>27/10/2023 05:12</t>
+        </is>
+      </c>
+      <c r="T50" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>28/10/2023 16:58</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/hassania-agadir-renaissance-zemamra/I103x87I/</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>morocco</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>botola-pro</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>45227.80208333334</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Olympique de Safi</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>2</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Raja Casablanca</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>2</v>
+      </c>
+      <c r="J51" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>27/10/2023 07:42</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>5.53</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>28/10/2023 19:10</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>27/10/2023 07:42</t>
+        </is>
+      </c>
+      <c r="P51" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>28/10/2023 19:10</t>
+        </is>
+      </c>
+      <c r="R51" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>27/10/2023 07:42</t>
+        </is>
+      </c>
+      <c r="T51" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>28/10/2023 19:10</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/olympique-de-safi-raja-casablanca/dha7ySMO/</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>morocco</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>botola-pro</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>45227.89583333334</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Youssoufia Berrechid</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>2</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Union Touarga</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>1</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:43</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>28/10/2023 21:28</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:43</t>
+        </is>
+      </c>
+      <c r="P52" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>28/10/2023 21:28</t>
+        </is>
+      </c>
+      <c r="R52" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:43</t>
+        </is>
+      </c>
+      <c r="T52" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>28/10/2023 21:28</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/youssoufia-berrechid-union-touarga/Aemk0BaP/</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>morocco</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>botola-pro</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>45228.66666666666</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>FAR Rabat</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>1</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>IR Tanger</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>28/10/2023 21:42</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>29/10/2023 15:16</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v>4</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>28/10/2023 21:42</t>
+        </is>
+      </c>
+      <c r="P53" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>29/10/2023 15:16</t>
+        </is>
+      </c>
+      <c r="R53" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>28/10/2023 21:42</t>
+        </is>
+      </c>
+      <c r="T53" t="n">
+        <v>6.91</v>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>29/10/2023 15:16</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/far-rabat-ir-tanger/plvHeV7t/</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>morocco</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>botola-pro</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>45228.76041666666</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Moghreb Tetouan</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>4</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Jeunesse Sportive Soualem</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>29/10/2023 17:40</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P54" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>29/10/2023 17:46</t>
+        </is>
+      </c>
+      <c r="R54" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T54" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>29/10/2023 17:40</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/moghreb-tetouan-jeunesse-sportive-soualem/SCTLfkNn/</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>morocco</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>botola-pro</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>45228.85416666666</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Maghreb Fez</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Berkane</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>29/10/2023 20:22</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P55" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>29/10/2023 20:22</t>
+        </is>
+      </c>
+      <c r="R55" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T55" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>29/10/2023 20:22</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/maghreb-fez-berkane/63SPg9xg/</t>
         </is>
       </c>
     </row>

--- a/2023/morocco_botola-pro_2023-2024.xlsx
+++ b/2023/morocco_botola-pro_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V55"/>
+  <dimension ref="A1:V56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1493,71 +1493,71 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Moghreb Tetouan</t>
+          <t>Mouloudia Oujda</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Olympique de Safi</t>
+          <t>Union Touarga</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J12" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>01/09/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>02/09/2023 21:14</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>01/09/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P12" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>02/09/2023 21:14</t>
+        </is>
+      </c>
+      <c r="R12" t="n">
         <v>3.02</v>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>01/09/2023 16:42</t>
         </is>
       </c>
-      <c r="L12" t="n">
-        <v>3.59</v>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>02/09/2023 21:20</t>
-        </is>
-      </c>
-      <c r="N12" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>01/09/2023 16:42</t>
-        </is>
-      </c>
-      <c r="P12" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>02/09/2023 21:20</t>
-        </is>
-      </c>
-      <c r="R12" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>01/09/2023 16:42</t>
-        </is>
-      </c>
       <c r="T12" t="n">
-        <v>2.33</v>
+        <v>3.11</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>02/09/2023 21:20</t>
+          <t>02/09/2023 21:14</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/morocco/botola-pro/moghreb-tetouan-olympique-de-safi/Q5Wd8U5n/</t>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/mouloudia-oujda-union-touarga/4dV07lLh/</t>
         </is>
       </c>
     </row>
@@ -1585,22 +1585,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Mouloudia Oujda</t>
+          <t>Moghreb Tetouan</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Union Touarga</t>
+          <t>Olympique de Safi</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>2.25</v>
+        <v>3.02</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1608,15 +1608,15 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>2.83</v>
+        <v>3.59</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>02/09/2023 21:14</t>
+          <t>02/09/2023 21:20</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.04</v>
+        <v>2.8</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1624,15 +1624,15 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>2.52</v>
+        <v>2.75</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>02/09/2023 21:14</t>
+          <t>02/09/2023 21:20</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>3.02</v>
+        <v>2.4</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
@@ -1640,16 +1640,16 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>3.11</v>
+        <v>2.33</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>02/09/2023 21:14</t>
+          <t>02/09/2023 21:20</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/morocco/botola-pro/mouloudia-oujda-union-touarga/4dV07lLh/</t>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/moghreb-tetouan-olympique-de-safi/Q5Wd8U5n/</t>
         </is>
       </c>
     </row>
@@ -1769,22 +1769,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>FUS Rabat</t>
+          <t>Berkane</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Maghreb Fez</t>
+          <t>IR Tanger</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>1.73</v>
+        <v>1.98</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.85</v>
+        <v>1.56</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>03/09/2023 20:10</t>
+          <t>03/09/2023 20:08</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.23</v>
+        <v>3.11</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,15 +1808,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>2.83</v>
+        <v>3.59</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>03/09/2023 20:10</t>
+          <t>03/09/2023 20:08</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>5.25</v>
+        <v>3.96</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>5.19</v>
+        <v>6.56</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>03/09/2023 20:10</t>
+          <t>03/09/2023 20:08</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/morocco/botola-pro/fus-rabat-maghreb-fez/Obo25Sk5/</t>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/berkane-ir-tanger/ILp64n5B/</t>
         </is>
       </c>
     </row>
@@ -1861,22 +1861,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Berkane</t>
+          <t>FUS Rabat</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>IR Tanger</t>
+          <t>Maghreb Fez</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1.98</v>
+        <v>1.73</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,15 +1884,15 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1.56</v>
+        <v>1.85</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>03/09/2023 20:08</t>
+          <t>03/09/2023 20:10</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.11</v>
+        <v>3.23</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,15 +1900,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.59</v>
+        <v>2.83</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>03/09/2023 20:08</t>
+          <t>03/09/2023 20:10</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>3.96</v>
+        <v>5.25</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>6.56</v>
+        <v>5.19</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>03/09/2023 20:08</t>
+          <t>03/09/2023 20:10</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/morocco/botola-pro/berkane-ir-tanger/ILp64n5B/</t>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/fus-rabat-maghreb-fez/Obo25Sk5/</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Berkane</t>
+          <t>Renaissance Zemamra</t>
         </is>
       </c>
       <c r="G47" t="n">
@@ -4721,14 +4721,14 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Youssoufia Berrechid</t>
+          <t>Olympique de Safi</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J47" t="n">
-        <v>1.39</v>
+        <v>2.98</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4736,15 +4736,15 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>1.33</v>
+        <v>3.95</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>08/10/2023 18:54</t>
+          <t>08/10/2023 19:14</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>4.21</v>
+        <v>2.85</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4752,15 +4752,15 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>4.64</v>
+        <v>2.75</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>08/10/2023 18:54</t>
+          <t>08/10/2023 19:14</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>7.84</v>
+        <v>2.5</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
@@ -4768,16 +4768,16 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>9.800000000000001</v>
+        <v>2.2</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>08/10/2023 18:54</t>
+          <t>08/10/2023 19:14</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/morocco/botola-pro/berkane-youssoufia-berrechid/W2sXokd9/</t>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/renaissance-zemamra-olympique-de-safi/xSSTnVt3/</t>
         </is>
       </c>
     </row>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Renaissance Zemamra</t>
+          <t>Berkane</t>
         </is>
       </c>
       <c r="G48" t="n">
@@ -4813,14 +4813,14 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Olympique de Safi</t>
+          <t>Youssoufia Berrechid</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>2.98</v>
+        <v>1.39</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>3.95</v>
+        <v>1.33</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>08/10/2023 19:14</t>
+          <t>08/10/2023 18:54</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>2.85</v>
+        <v>4.21</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>2.75</v>
+        <v>4.64</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>08/10/2023 19:14</t>
+          <t>08/10/2023 18:54</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>2.5</v>
+        <v>7.84</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>2.2</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>08/10/2023 19:14</t>
+          <t>08/10/2023 18:54</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/morocco/botola-pro/renaissance-zemamra-olympique-de-safi/xSSTnVt3/</t>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/berkane-youssoufia-berrechid/W2sXokd9/</t>
         </is>
       </c>
     </row>
@@ -5514,6 +5514,98 @@
       <c r="V55" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/morocco/botola-pro/maghreb-fez-berkane/63SPg9xg/</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>morocco</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>botola-pro</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>45233.85416666666</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Jeunesse Sportive Soualem</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>2</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Chabab Mohammedia</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>2</v>
+      </c>
+      <c r="J56" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:42</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>03/11/2023 20:22</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:42</t>
+        </is>
+      </c>
+      <c r="P56" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>03/11/2023 20:20</t>
+        </is>
+      </c>
+      <c r="R56" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>02/11/2023 08:42</t>
+        </is>
+      </c>
+      <c r="T56" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>03/11/2023 20:22</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/jeunesse-sportive-soualem-chabab-mohammedia/ETVXim75/</t>
         </is>
       </c>
     </row>

--- a/2023/morocco_botola-pro_2023-2024.xlsx
+++ b/2023/morocco_botola-pro_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V56"/>
+  <dimension ref="A1:V59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1769,22 +1769,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Berkane</t>
+          <t>FUS Rabat</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>IR Tanger</t>
+          <t>Maghreb Fez</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.98</v>
+        <v>1.73</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.56</v>
+        <v>1.85</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>03/09/2023 20:08</t>
+          <t>03/09/2023 20:10</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.11</v>
+        <v>3.23</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,15 +1808,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.59</v>
+        <v>2.83</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>03/09/2023 20:08</t>
+          <t>03/09/2023 20:10</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>3.96</v>
+        <v>5.25</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>6.56</v>
+        <v>5.19</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>03/09/2023 20:08</t>
+          <t>03/09/2023 20:10</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/morocco/botola-pro/berkane-ir-tanger/ILp64n5B/</t>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/fus-rabat-maghreb-fez/Obo25Sk5/</t>
         </is>
       </c>
     </row>
@@ -1861,22 +1861,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>FUS Rabat</t>
+          <t>Berkane</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Maghreb Fez</t>
+          <t>IR Tanger</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>1.73</v>
+        <v>1.98</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,15 +1884,15 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1.85</v>
+        <v>1.56</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>03/09/2023 20:10</t>
+          <t>03/09/2023 20:08</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.23</v>
+        <v>3.11</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,15 +1900,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>2.83</v>
+        <v>3.59</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>03/09/2023 20:10</t>
+          <t>03/09/2023 20:08</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>5.25</v>
+        <v>3.96</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>5.19</v>
+        <v>6.56</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>03/09/2023 20:10</t>
+          <t>03/09/2023 20:08</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/morocco/botola-pro/fus-rabat-maghreb-fez/Obo25Sk5/</t>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/berkane-ir-tanger/ILp64n5B/</t>
         </is>
       </c>
     </row>
@@ -5606,6 +5606,282 @@
       <c r="V56" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/morocco/botola-pro/jeunesse-sportive-soualem-chabab-mohammedia/ETVXim75/</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>morocco</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>botola-pro</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>45234.66666666666</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Renaissance Zemamra</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>1</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Moghreb Tetouan</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>1</v>
+      </c>
+      <c r="J57" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>03/11/2023 04:13</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:52</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>03/11/2023 04:13</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>04/11/2023 14:11</t>
+        </is>
+      </c>
+      <c r="R57" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>03/11/2023 04:13</t>
+        </is>
+      </c>
+      <c r="T57" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:52</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/renaissance-zemamra-moghreb-tetouan/dhLxi7MB/</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>morocco</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>botola-pro</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>45234.76041666666</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Berkane</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Hassania Agadir</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>03/11/2023 12:42</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>04/11/2023 17:49</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>03/11/2023 12:42</t>
+        </is>
+      </c>
+      <c r="P58" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>04/11/2023 17:50</t>
+        </is>
+      </c>
+      <c r="R58" t="n">
+        <v>8.09</v>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>03/11/2023 12:42</t>
+        </is>
+      </c>
+      <c r="T58" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>04/11/2023 17:50</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/berkane-hassania-agadir/AePtjRyI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>morocco</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>botola-pro</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>45234.85416666666</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>FAR Rabat</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>4</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Youssoufia Berrechid</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>1</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>03/11/2023 15:13</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>04/11/2023 20:20</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>03/11/2023 15:13</t>
+        </is>
+      </c>
+      <c r="P59" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>04/11/2023 20:25</t>
+        </is>
+      </c>
+      <c r="R59" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>03/11/2023 15:13</t>
+        </is>
+      </c>
+      <c r="T59" t="n">
+        <v>13.48</v>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>04/11/2023 20:25</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/far-rabat-youssoufia-berrechid/2imAYb6p/</t>
         </is>
       </c>
     </row>

--- a/2023/morocco_botola-pro_2023-2024.xlsx
+++ b/2023/morocco_botola-pro_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V59"/>
+  <dimension ref="A1:V61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Renaissance Zemamra</t>
+          <t>Berkane</t>
         </is>
       </c>
       <c r="G47" t="n">
@@ -4721,14 +4721,14 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Olympique de Safi</t>
+          <t>Youssoufia Berrechid</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>2.98</v>
+        <v>1.39</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4736,15 +4736,15 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>3.95</v>
+        <v>1.33</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>08/10/2023 19:14</t>
+          <t>08/10/2023 18:54</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>2.85</v>
+        <v>4.21</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4752,15 +4752,15 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>2.75</v>
+        <v>4.64</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>08/10/2023 19:14</t>
+          <t>08/10/2023 18:54</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>2.5</v>
+        <v>7.84</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
@@ -4768,16 +4768,16 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>2.2</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>08/10/2023 19:14</t>
+          <t>08/10/2023 18:54</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/morocco/botola-pro/renaissance-zemamra-olympique-de-safi/xSSTnVt3/</t>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/berkane-youssoufia-berrechid/W2sXokd9/</t>
         </is>
       </c>
     </row>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Berkane</t>
+          <t>Renaissance Zemamra</t>
         </is>
       </c>
       <c r="G48" t="n">
@@ -4813,14 +4813,14 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Youssoufia Berrechid</t>
+          <t>Olympique de Safi</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J48" t="n">
-        <v>1.39</v>
+        <v>2.98</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>1.33</v>
+        <v>3.95</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>08/10/2023 18:54</t>
+          <t>08/10/2023 19:14</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>4.21</v>
+        <v>2.85</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>4.64</v>
+        <v>2.75</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>08/10/2023 18:54</t>
+          <t>08/10/2023 19:14</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>7.84</v>
+        <v>2.5</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>9.800000000000001</v>
+        <v>2.2</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>08/10/2023 18:54</t>
+          <t>08/10/2023 19:14</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/morocco/botola-pro/berkane-youssoufia-berrechid/W2sXokd9/</t>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/renaissance-zemamra-olympique-de-safi/xSSTnVt3/</t>
         </is>
       </c>
     </row>
@@ -5882,6 +5882,190 @@
       <c r="V59" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/morocco/botola-pro/far-rabat-youssoufia-berrechid/2imAYb6p/</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>morocco</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>botola-pro</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>45235.66666666666</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>IR Tanger</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>2</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Maghreb Fez</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>2</v>
+      </c>
+      <c r="J60" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>04/11/2023 04:12</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>05/11/2023 15:56</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>04/11/2023 04:12</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>05/11/2023 15:51</t>
+        </is>
+      </c>
+      <c r="R60" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>04/11/2023 04:12</t>
+        </is>
+      </c>
+      <c r="T60" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>05/11/2023 15:56</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/ir-tanger-maghreb-fez/trnEXILj/</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>morocco</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>botola-pro</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>45235.76041666666</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Mouloudia Oujda</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>1</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Olympique de Safi</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>04/11/2023 06:43</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:23</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>04/11/2023 06:43</t>
+        </is>
+      </c>
+      <c r="P61" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:18</t>
+        </is>
+      </c>
+      <c r="R61" t="n">
+        <v>2</v>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>04/11/2023 06:43</t>
+        </is>
+      </c>
+      <c r="T61" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:23</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/mouloudia-oujda-olympique-de-safi/Sp7ld2bi/</t>
         </is>
       </c>
     </row>

--- a/2023/morocco_botola-pro_2023-2024.xlsx
+++ b/2023/morocco_botola-pro_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V61"/>
+  <dimension ref="A1:V62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Berkane</t>
+          <t>Renaissance Zemamra</t>
         </is>
       </c>
       <c r="G47" t="n">
@@ -4721,14 +4721,14 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Youssoufia Berrechid</t>
+          <t>Olympique de Safi</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J47" t="n">
-        <v>1.39</v>
+        <v>2.98</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4736,15 +4736,15 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>1.33</v>
+        <v>3.95</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>08/10/2023 18:54</t>
+          <t>08/10/2023 19:14</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>4.21</v>
+        <v>2.85</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4752,15 +4752,15 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>4.64</v>
+        <v>2.75</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>08/10/2023 18:54</t>
+          <t>08/10/2023 19:14</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>7.84</v>
+        <v>2.5</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
@@ -4768,16 +4768,16 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>9.800000000000001</v>
+        <v>2.2</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>08/10/2023 18:54</t>
+          <t>08/10/2023 19:14</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/morocco/botola-pro/berkane-youssoufia-berrechid/W2sXokd9/</t>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/renaissance-zemamra-olympique-de-safi/xSSTnVt3/</t>
         </is>
       </c>
     </row>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Renaissance Zemamra</t>
+          <t>Berkane</t>
         </is>
       </c>
       <c r="G48" t="n">
@@ -4813,14 +4813,14 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Olympique de Safi</t>
+          <t>Youssoufia Berrechid</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>2.98</v>
+        <v>1.39</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>3.95</v>
+        <v>1.33</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>08/10/2023 19:14</t>
+          <t>08/10/2023 18:54</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>2.85</v>
+        <v>4.21</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>2.75</v>
+        <v>4.64</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>08/10/2023 19:14</t>
+          <t>08/10/2023 18:54</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>2.5</v>
+        <v>7.84</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>2.2</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>08/10/2023 19:14</t>
+          <t>08/10/2023 18:54</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/morocco/botola-pro/renaissance-zemamra-olympique-de-safi/xSSTnVt3/</t>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/berkane-youssoufia-berrechid/W2sXokd9/</t>
         </is>
       </c>
     </row>
@@ -6066,6 +6066,98 @@
       <c r="V61" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/morocco/botola-pro/mouloudia-oujda-olympique-de-safi/Sp7ld2bi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>morocco</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>botola-pro</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>45236.70833333334</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Raja Casablanca</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>2</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>FUS Rabat</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>05/11/2023 05:12</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>06/11/2023 16:59</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>05/11/2023 05:12</t>
+        </is>
+      </c>
+      <c r="P62" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>06/11/2023 16:50</t>
+        </is>
+      </c>
+      <c r="R62" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>05/11/2023 05:12</t>
+        </is>
+      </c>
+      <c r="T62" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>06/11/2023 16:59</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/raja-casablanca-fus-rabat/6y6heMDc/</t>
         </is>
       </c>
     </row>

--- a/2023/morocco_botola-pro_2023-2024.xlsx
+++ b/2023/morocco_botola-pro_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V62"/>
+  <dimension ref="A1:V64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Renaissance Zemamra</t>
+          <t>Berkane</t>
         </is>
       </c>
       <c r="G47" t="n">
@@ -4721,14 +4721,14 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Olympique de Safi</t>
+          <t>Youssoufia Berrechid</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>2.98</v>
+        <v>1.39</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4736,15 +4736,15 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>3.95</v>
+        <v>1.33</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>08/10/2023 19:14</t>
+          <t>08/10/2023 18:54</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>2.85</v>
+        <v>4.21</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4752,15 +4752,15 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>2.75</v>
+        <v>4.64</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>08/10/2023 19:14</t>
+          <t>08/10/2023 18:54</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>2.5</v>
+        <v>7.84</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
@@ -4768,16 +4768,16 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>2.2</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>08/10/2023 19:14</t>
+          <t>08/10/2023 18:54</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/morocco/botola-pro/renaissance-zemamra-olympique-de-safi/xSSTnVt3/</t>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/berkane-youssoufia-berrechid/W2sXokd9/</t>
         </is>
       </c>
     </row>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Berkane</t>
+          <t>Renaissance Zemamra</t>
         </is>
       </c>
       <c r="G48" t="n">
@@ -4813,14 +4813,14 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Youssoufia Berrechid</t>
+          <t>Olympique de Safi</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J48" t="n">
-        <v>1.39</v>
+        <v>2.98</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>1.33</v>
+        <v>3.95</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>08/10/2023 18:54</t>
+          <t>08/10/2023 19:14</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>4.21</v>
+        <v>2.85</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>4.64</v>
+        <v>2.75</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>08/10/2023 18:54</t>
+          <t>08/10/2023 19:14</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>7.84</v>
+        <v>2.5</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>9.800000000000001</v>
+        <v>2.2</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>08/10/2023 18:54</t>
+          <t>08/10/2023 19:14</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/morocco/botola-pro/berkane-youssoufia-berrechid/W2sXokd9/</t>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/renaissance-zemamra-olympique-de-safi/xSSTnVt3/</t>
         </is>
       </c>
     </row>
@@ -6158,6 +6158,190 @@
       <c r="V62" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/morocco/botola-pro/raja-casablanca-fus-rabat/6y6heMDc/</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>morocco</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>botola-pro</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>45240.66666666666</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Maghreb Fez</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Union Touarga</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>1</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>09/11/2023 04:12</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>10/11/2023 15:59</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>09/11/2023 04:12</t>
+        </is>
+      </c>
+      <c r="P63" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>10/11/2023 15:59</t>
+        </is>
+      </c>
+      <c r="R63" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>09/11/2023 04:12</t>
+        </is>
+      </c>
+      <c r="T63" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>10/11/2023 15:59</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/maghreb-fez-union-touarga/tOkxWj89/</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>morocco</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>botola-pro</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>45240.76041666666</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Moghreb Tetouan</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>1</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Mouloudia Oujda</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>09/11/2023 06:42</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>10/11/2023 18:11</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>09/11/2023 06:42</t>
+        </is>
+      </c>
+      <c r="P64" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>10/11/2023 18:11</t>
+        </is>
+      </c>
+      <c r="R64" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>09/11/2023 06:42</t>
+        </is>
+      </c>
+      <c r="T64" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>10/11/2023 18:11</t>
+        </is>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/moghreb-tetouan-mouloudia-oujda/fRgtVANF/</t>
         </is>
       </c>
     </row>

--- a/2023/morocco_botola-pro_2023-2024.xlsx
+++ b/2023/morocco_botola-pro_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V64"/>
+  <dimension ref="A1:V67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6345,6 +6345,282 @@
         </is>
       </c>
     </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>morocco</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>botola-pro</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>45241.66666666666</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>FUS Rabat</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>1</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Berkane</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>1</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>10/11/2023 04:13</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:58</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>10/11/2023 04:13</t>
+        </is>
+      </c>
+      <c r="P65" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:58</t>
+        </is>
+      </c>
+      <c r="R65" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>10/11/2023 04:13</t>
+        </is>
+      </c>
+      <c r="T65" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:44</t>
+        </is>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/fus-rabat-berkane/xjqoUUxM/</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>morocco</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>botola-pro</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>45241.76041666666</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Jeunesse Sportive Soualem</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Raja Casablanca</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>10/11/2023 06:42</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>6.83</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>11/11/2023 18:11</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>10/11/2023 06:42</t>
+        </is>
+      </c>
+      <c r="P66" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>11/11/2023 18:11</t>
+        </is>
+      </c>
+      <c r="R66" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>10/11/2023 06:42</t>
+        </is>
+      </c>
+      <c r="T66" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>11/11/2023 18:11</t>
+        </is>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/jeunesse-sportive-soualem-raja-casablanca/GtrkTlhS/</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>morocco</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>botola-pro</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>45241.85416666666</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Olympique de Safi</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>1</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>FAR Rabat</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>10/11/2023 08:42</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>11/11/2023 20:18</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v>3</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>10/11/2023 08:42</t>
+        </is>
+      </c>
+      <c r="P67" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>11/11/2023 20:18</t>
+        </is>
+      </c>
+      <c r="R67" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>10/11/2023 08:42</t>
+        </is>
+      </c>
+      <c r="T67" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>11/11/2023 20:18</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/olympique-de-safi-far-rabat/nPUGO80q/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/morocco_botola-pro_2023-2024.xlsx
+++ b/2023/morocco_botola-pro_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V67"/>
+  <dimension ref="A1:V69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6621,6 +6621,190 @@
         </is>
       </c>
     </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>morocco</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>botola-pro</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>45242.76041666666</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Chabab Mohammedia</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Renaissance Zemamra</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>2</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>11/11/2023 06:42</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>12/11/2023 18:03</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>11/11/2023 06:42</t>
+        </is>
+      </c>
+      <c r="P68" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>12/11/2023 18:03</t>
+        </is>
+      </c>
+      <c r="R68" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>11/11/2023 06:42</t>
+        </is>
+      </c>
+      <c r="T68" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>12/11/2023 18:03</t>
+        </is>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/chabab-mohammedia-renaissance-zemamra/QFTKNSFk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>morocco</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>botola-pro</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>45242.85416666666</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Hassania Agadir</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>1</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>IR Tanger</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>11/11/2023 08:43</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>12/11/2023 20:28</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>11/11/2023 08:43</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>12/11/2023 20:28</t>
+        </is>
+      </c>
+      <c r="R69" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>11/11/2023 08:43</t>
+        </is>
+      </c>
+      <c r="T69" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>12/11/2023 20:28</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/hassania-agadir-ir-tanger/8vJPMnVe/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/morocco_botola-pro_2023-2024.xlsx
+++ b/2023/morocco_botola-pro_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V69"/>
+  <dimension ref="A1:V70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6805,6 +6805,98 @@
         </is>
       </c>
     </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>morocco</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>botola-pro</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>45254.83333333334</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Union Touarga</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>FUS Rabat</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>23/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>24/11/2023 19:50</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>23/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P70" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>24/11/2023 19:50</t>
+        </is>
+      </c>
+      <c r="R70" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>23/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T70" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>24/11/2023 19:50</t>
+        </is>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/union-touarga-fus-rabat/jDVARjxE/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/morocco_botola-pro_2023-2024.xlsx
+++ b/2023/morocco_botola-pro_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V70"/>
+  <dimension ref="A1:V75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3701,71 +3701,71 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Youssoufia Berrechid</t>
+          <t>Maghreb Fez</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Mouloudia Oujda</t>
+          <t>Jeunesse Sportive Soualem</t>
         </is>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>2.28</v>
+        <v>2.09</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>01/10/2023 04:42</t>
+          <t>30/09/2023 06:42</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>2.05</v>
+        <v>2.01</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>01/10/2023 19:11</t>
+          <t>01/10/2023 19:13</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>01/10/2023 04:42</t>
+          <t>30/09/2023 06:42</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>2.99</v>
+        <v>3.03</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>01/10/2023 19:11</t>
+          <t>01/10/2023 19:01</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>3.29</v>
+        <v>3.56</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>01/10/2023 04:42</t>
+          <t>30/09/2023 06:42</t>
         </is>
       </c>
       <c r="T36" t="n">
-        <v>4.02</v>
+        <v>4.13</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>01/10/2023 19:11</t>
+          <t>01/10/2023 19:13</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/morocco/botola-pro/youssoufia-berrechid-mouloudia-oujda/IeJ5XXs7/</t>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/maghreb-fez-jeunesse-sportive-soualem/OYJ1YDS0/</t>
         </is>
       </c>
     </row>
@@ -3793,71 +3793,71 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Maghreb Fez</t>
+          <t>Youssoufia Berrechid</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Jeunesse Sportive Soualem</t>
+          <t>Mouloudia Oujda</t>
         </is>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>2.09</v>
+        <v>2.28</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>30/09/2023 06:42</t>
+          <t>01/10/2023 04:42</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>2.01</v>
+        <v>2.05</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>01/10/2023 19:13</t>
+          <t>01/10/2023 19:11</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>30/09/2023 06:42</t>
+          <t>01/10/2023 04:42</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.03</v>
+        <v>2.99</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>01/10/2023 19:01</t>
+          <t>01/10/2023 19:11</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>3.56</v>
+        <v>3.29</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>30/09/2023 06:42</t>
+          <t>01/10/2023 04:42</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>4.13</v>
+        <v>4.02</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>01/10/2023 19:13</t>
+          <t>01/10/2023 19:11</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/morocco/botola-pro/maghreb-fez-jeunesse-sportive-soualem/OYJ1YDS0/</t>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/youssoufia-berrechid-mouloudia-oujda/IeJ5XXs7/</t>
         </is>
       </c>
     </row>
@@ -6894,6 +6894,466 @@
       <c r="V70" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/morocco/botola-pro/union-touarga-fus-rabat/jDVARjxE/</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>morocco</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>botola-pro</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>45255.66666666666</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Mouloudia Oujda</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>1</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Hassania Agadir</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>23/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>25/11/2023 15:55</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>23/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="P71" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>25/11/2023 15:55</t>
+        </is>
+      </c>
+      <c r="R71" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>23/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="T71" t="n">
+        <v>3</v>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>25/11/2023 15:55</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/mouloudia-oujda-hassania-agadir/rLmIPU6Q/</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>morocco</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>botola-pro</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>45255.76041666666</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Youssoufia Berrechid</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>1</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Maghreb Fez</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>23/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:11</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>23/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="P72" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:11</t>
+        </is>
+      </c>
+      <c r="R72" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>23/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="T72" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:11</t>
+        </is>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/youssoufia-berrechid-maghreb-fez/pUZqLlFs/</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>morocco</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>botola-pro</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>45256.625</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Raja Casablanca</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>1</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Chabab Mohammedia</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>25/11/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:57</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>25/11/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P73" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:57</t>
+        </is>
+      </c>
+      <c r="R73" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>25/11/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T73" t="n">
+        <v>9.57</v>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:57</t>
+        </is>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/raja-casablanca-chabab-mohammedia/zJSdIna0/</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>morocco</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>botola-pro</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>45256.66666666666</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>IR Tanger</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>1</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Moghreb Tetouan</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>1</v>
+      </c>
+      <c r="J74" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>25/11/2023 04:13</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>26/11/2023 15:41</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>25/11/2023 04:13</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>26/11/2023 15:44</t>
+        </is>
+      </c>
+      <c r="R74" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>25/11/2023 04:13</t>
+        </is>
+      </c>
+      <c r="T74" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>26/11/2023 15:41</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/ir-tanger-moghreb-tetouan/25UlK8Um/</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>morocco</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>botola-pro</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>45256.66666666666</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Renaissance Zemamra</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>1</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Jeunesse Sportive Soualem</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>25/11/2023 04:13</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>26/11/2023 15:58</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>25/11/2023 04:13</t>
+        </is>
+      </c>
+      <c r="P75" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>26/11/2023 15:58</t>
+        </is>
+      </c>
+      <c r="R75" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>25/11/2023 04:13</t>
+        </is>
+      </c>
+      <c r="T75" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>26/11/2023 15:58</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/renaissance-zemamra-jeunesse-sportive-soualem/tdThJSqf/</t>
         </is>
       </c>
     </row>

--- a/2023/morocco_botola-pro_2023-2024.xlsx
+++ b/2023/morocco_botola-pro_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V75"/>
+  <dimension ref="A1:V76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3701,71 +3701,71 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Maghreb Fez</t>
+          <t>Youssoufia Berrechid</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Jeunesse Sportive Soualem</t>
+          <t>Mouloudia Oujda</t>
         </is>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>2.09</v>
+        <v>2.28</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>30/09/2023 06:42</t>
+          <t>01/10/2023 04:42</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>2.01</v>
+        <v>2.05</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>01/10/2023 19:13</t>
+          <t>01/10/2023 19:11</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>30/09/2023 06:42</t>
+          <t>01/10/2023 04:42</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.03</v>
+        <v>2.99</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>01/10/2023 19:01</t>
+          <t>01/10/2023 19:11</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>3.56</v>
+        <v>3.29</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>30/09/2023 06:42</t>
+          <t>01/10/2023 04:42</t>
         </is>
       </c>
       <c r="T36" t="n">
-        <v>4.13</v>
+        <v>4.02</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>01/10/2023 19:13</t>
+          <t>01/10/2023 19:11</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/morocco/botola-pro/maghreb-fez-jeunesse-sportive-soualem/OYJ1YDS0/</t>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/youssoufia-berrechid-mouloudia-oujda/IeJ5XXs7/</t>
         </is>
       </c>
     </row>
@@ -3793,71 +3793,71 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Youssoufia Berrechid</t>
+          <t>Maghreb Fez</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Mouloudia Oujda</t>
+          <t>Jeunesse Sportive Soualem</t>
         </is>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>2.28</v>
+        <v>2.09</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>01/10/2023 04:42</t>
+          <t>30/09/2023 06:42</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>2.05</v>
+        <v>2.01</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>01/10/2023 19:11</t>
+          <t>01/10/2023 19:13</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>01/10/2023 04:42</t>
+          <t>30/09/2023 06:42</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>2.99</v>
+        <v>3.03</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>01/10/2023 19:11</t>
+          <t>01/10/2023 19:01</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>3.29</v>
+        <v>3.56</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>01/10/2023 04:42</t>
+          <t>30/09/2023 06:42</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>4.02</v>
+        <v>4.13</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>01/10/2023 19:11</t>
+          <t>01/10/2023 19:13</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/morocco/botola-pro/youssoufia-berrechid-mouloudia-oujda/IeJ5XXs7/</t>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/maghreb-fez-jeunesse-sportive-soualem/OYJ1YDS0/</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Berkane</t>
+          <t>Renaissance Zemamra</t>
         </is>
       </c>
       <c r="G47" t="n">
@@ -4721,14 +4721,14 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Youssoufia Berrechid</t>
+          <t>Olympique de Safi</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J47" t="n">
-        <v>1.39</v>
+        <v>2.98</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4736,15 +4736,15 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>1.33</v>
+        <v>3.95</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>08/10/2023 18:54</t>
+          <t>08/10/2023 19:14</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>4.21</v>
+        <v>2.85</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4752,15 +4752,15 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>4.64</v>
+        <v>2.75</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>08/10/2023 18:54</t>
+          <t>08/10/2023 19:14</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>7.84</v>
+        <v>2.5</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
@@ -4768,16 +4768,16 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>9.800000000000001</v>
+        <v>2.2</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>08/10/2023 18:54</t>
+          <t>08/10/2023 19:14</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/morocco/botola-pro/berkane-youssoufia-berrechid/W2sXokd9/</t>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/renaissance-zemamra-olympique-de-safi/xSSTnVt3/</t>
         </is>
       </c>
     </row>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Renaissance Zemamra</t>
+          <t>Berkane</t>
         </is>
       </c>
       <c r="G48" t="n">
@@ -4813,14 +4813,14 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Olympique de Safi</t>
+          <t>Youssoufia Berrechid</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>2.98</v>
+        <v>1.39</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>3.95</v>
+        <v>1.33</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>08/10/2023 19:14</t>
+          <t>08/10/2023 18:54</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>2.85</v>
+        <v>4.21</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>2.75</v>
+        <v>4.64</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>08/10/2023 19:14</t>
+          <t>08/10/2023 18:54</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>2.5</v>
+        <v>7.84</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>2.2</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>08/10/2023 19:14</t>
+          <t>08/10/2023 18:54</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/morocco/botola-pro/renaissance-zemamra-olympique-de-safi/xSSTnVt3/</t>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/berkane-youssoufia-berrechid/W2sXokd9/</t>
         </is>
       </c>
     </row>
@@ -7354,6 +7354,98 @@
       <c r="V75" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/morocco/botola-pro/renaissance-zemamra-jeunesse-sportive-soualem/tdThJSqf/</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>morocco</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>botola-pro</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>45258.75</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>FAR Rabat</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>3</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Wydad</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>1</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>26/11/2023 16:13</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>28/11/2023 17:51</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>26/11/2023 16:13</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>28/11/2023 17:51</t>
+        </is>
+      </c>
+      <c r="R76" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>26/11/2023 16:13</t>
+        </is>
+      </c>
+      <c r="T76" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>28/11/2023 17:51</t>
+        </is>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/far-rabat-wydad-athletic/lMW0H6E6/</t>
         </is>
       </c>
     </row>

--- a/2023/morocco_botola-pro_2023-2024.xlsx
+++ b/2023/morocco_botola-pro_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V76"/>
+  <dimension ref="A1:V92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7449,6 +7449,1478 @@
         </is>
       </c>
     </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>morocco</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>botola-pro</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>45266.75</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Wydad</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>3</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Mouloudia Oujda</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>1</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>26/10/2023 05:12</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>06/12/2023 16:56</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>26/10/2023 05:12</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>06/12/2023 16:58</t>
+        </is>
+      </c>
+      <c r="R77" t="n">
+        <v>9.43</v>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>26/10/2023 05:12</t>
+        </is>
+      </c>
+      <c r="T77" t="n">
+        <v>11.36</v>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>06/12/2023 16:58</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/wydad-athletic-mouloudia-oujda/MZ6fvUx6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>morocco</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>botola-pro</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>45267.75</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Berkane</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>3</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Olympique de Safi</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>06/12/2023 06:12</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>07/12/2023 17:55</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>06/12/2023 06:12</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>07/12/2023 17:58</t>
+        </is>
+      </c>
+      <c r="R78" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>06/12/2023 06:12</t>
+        </is>
+      </c>
+      <c r="T78" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>07/12/2023 17:58</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/berkane-olympique-de-safi/lblEQAiK/</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>morocco</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>botola-pro</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>45268.66666666666</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Maghreb Fez</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>1</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>FAR Rabat</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>3</v>
+      </c>
+      <c r="J79" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>07/12/2023 04:12</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>08/12/2023 15:59</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>07/12/2023 04:12</t>
+        </is>
+      </c>
+      <c r="P79" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>08/12/2023 15:57</t>
+        </is>
+      </c>
+      <c r="R79" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>07/12/2023 04:12</t>
+        </is>
+      </c>
+      <c r="T79" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>08/12/2023 15:59</t>
+        </is>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/maghreb-fez-far-rabat/rP9wlNsC/</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>morocco</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>botola-pro</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>45268.75</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>FUS Rabat</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>IR Tanger</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>07/12/2023 06:12</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>08/12/2023 17:53</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>07/12/2023 06:12</t>
+        </is>
+      </c>
+      <c r="P80" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>08/12/2023 17:53</t>
+        </is>
+      </c>
+      <c r="R80" t="n">
+        <v>6.41</v>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>07/12/2023 06:12</t>
+        </is>
+      </c>
+      <c r="T80" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>08/12/2023 17:53</t>
+        </is>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/fus-rabat-ir-tanger/xn9smscI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>morocco</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>botola-pro</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>45269.625</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Raja Casablanca</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>2</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Renaissance Zemamra</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>1</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>08/12/2023 03:13</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>09/12/2023 13:58</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>4</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>08/12/2023 03:13</t>
+        </is>
+      </c>
+      <c r="P81" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>09/12/2023 14:56</t>
+        </is>
+      </c>
+      <c r="R81" t="n">
+        <v>7.24</v>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>08/12/2023 03:13</t>
+        </is>
+      </c>
+      <c r="T81" t="n">
+        <v>9.81</v>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>09/12/2023 14:56</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/raja-casablanca-renaissance-zemamra/jkDon1CO/</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>morocco</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>botola-pro</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>45269.75</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Jeunesse Sportive Soualem</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>1</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Union Touarga</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>08/12/2023 06:12</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>09/12/2023 17:55</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>08/12/2023 06:12</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>09/12/2023 17:54</t>
+        </is>
+      </c>
+      <c r="R82" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>08/12/2023 06:12</t>
+        </is>
+      </c>
+      <c r="T82" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>09/12/2023 17:55</t>
+        </is>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/jeunesse-sportive-soualem-union-touarga/hfiUApkP/</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>morocco</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>botola-pro</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>45270.66666666666</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Chabab Mohammedia</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>1</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Mouloudia Oujda</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>08/12/2023 22:42</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>10/12/2023 15:59</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>08/12/2023 22:42</t>
+        </is>
+      </c>
+      <c r="P83" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>10/12/2023 15:59</t>
+        </is>
+      </c>
+      <c r="R83" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>08/12/2023 22:42</t>
+        </is>
+      </c>
+      <c r="T83" t="n">
+        <v>5</v>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>10/12/2023 15:59</t>
+        </is>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/chabab-mohammedia-mouloudia-oujda/f3wd64ct/</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>morocco</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>botola-pro</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>45270.75</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Olympique de Safi</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>3</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Youssoufia Berrechid</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>1</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>08/12/2023 22:42</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>10/12/2023 16:00</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>08/12/2023 22:42</t>
+        </is>
+      </c>
+      <c r="P84" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>10/12/2023 17:59</t>
+        </is>
+      </c>
+      <c r="R84" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>08/12/2023 22:42</t>
+        </is>
+      </c>
+      <c r="T84" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>10/12/2023 17:59</t>
+        </is>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/olympique-de-safi-youssoufia-berrechid/2Tx05OCn/</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>morocco</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>botola-pro</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>45272.75</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Union Touarga</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Wydad</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>11/12/2023 09:12</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>12/12/2023 17:52</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>11/12/2023 09:12</t>
+        </is>
+      </c>
+      <c r="P85" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>12/12/2023 17:51</t>
+        </is>
+      </c>
+      <c r="R85" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>11/12/2023 09:12</t>
+        </is>
+      </c>
+      <c r="T85" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>12/12/2023 17:52</t>
+        </is>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/union-touarga-wydad-athletic/zwXThTia/</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>morocco</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>botola-pro</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>45273.75</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Moghreb Tetouan</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Berkane</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>12/12/2023 06:12</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>13/12/2023 17:59</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>12/12/2023 06:12</t>
+        </is>
+      </c>
+      <c r="P86" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>13/12/2023 17:59</t>
+        </is>
+      </c>
+      <c r="R86" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>12/12/2023 06:12</t>
+        </is>
+      </c>
+      <c r="T86" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>13/12/2023 17:59</t>
+        </is>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/moghreb-tetouan-berkane/tKy44rSh/</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>morocco</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>botola-pro</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>45276.66666666666</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Mouloudia Oujda</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>3</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Jeunesse Sportive Soualem</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>2</v>
+      </c>
+      <c r="J87" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>15/12/2023 04:13</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>16/12/2023 15:59</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>15/12/2023 04:13</t>
+        </is>
+      </c>
+      <c r="P87" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>16/12/2023 15:58</t>
+        </is>
+      </c>
+      <c r="R87" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>15/12/2023 04:13</t>
+        </is>
+      </c>
+      <c r="T87" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>16/12/2023 15:59</t>
+        </is>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/mouloudia-oujda-jeunesse-sportive-soualem/IkKDwfxg/</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>morocco</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>botola-pro</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>45276.75</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>IR Tanger</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Olympique de Safi</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>15/12/2023 06:12</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>16/12/2023 17:52</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>15/12/2023 06:12</t>
+        </is>
+      </c>
+      <c r="P88" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>16/12/2023 17:51</t>
+        </is>
+      </c>
+      <c r="R88" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>15/12/2023 06:12</t>
+        </is>
+      </c>
+      <c r="T88" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>16/12/2023 17:52</t>
+        </is>
+      </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/ir-tanger-olympique-de-safi/nPOHxEia/</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>morocco</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>botola-pro</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>45276.83333333334</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Union Touarga</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>1</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Chabab Mohammedia</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>2</v>
+      </c>
+      <c r="J89" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>15/12/2023 08:12</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>16/12/2023 19:59</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>15/12/2023 08:12</t>
+        </is>
+      </c>
+      <c r="P89" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>16/12/2023 19:59</t>
+        </is>
+      </c>
+      <c r="R89" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>15/12/2023 08:12</t>
+        </is>
+      </c>
+      <c r="T89" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>16/12/2023 19:53</t>
+        </is>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/union-touarga-chabab-mohammedia/QFNLyY65/</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>morocco</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>botola-pro</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>45277.66666666666</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Renaissance Zemamra</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>1</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>FUS Rabat</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>2</v>
+      </c>
+      <c r="J90" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>16/12/2023 04:13</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>17/12/2023 15:53</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>16/12/2023 04:13</t>
+        </is>
+      </c>
+      <c r="P90" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>17/12/2023 15:51</t>
+        </is>
+      </c>
+      <c r="R90" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>16/12/2023 04:13</t>
+        </is>
+      </c>
+      <c r="T90" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>17/12/2023 15:53</t>
+        </is>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/renaissance-zemamra-fus-rabat/8vDQzhMB/</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>morocco</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>botola-pro</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>45277.75</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>FAR Rabat</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>2</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Hassania Agadir</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>1</v>
+      </c>
+      <c r="J91" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>16/12/2023 06:12</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>17/12/2023 17:59</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>16/12/2023 06:12</t>
+        </is>
+      </c>
+      <c r="P91" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>17/12/2023 17:59</t>
+        </is>
+      </c>
+      <c r="R91" t="n">
+        <v>7.81</v>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>16/12/2023 06:12</t>
+        </is>
+      </c>
+      <c r="T91" t="n">
+        <v>12.84</v>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>17/12/2023 17:59</t>
+        </is>
+      </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/far-rabat-hassania-agadir/KEGUZByI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>morocco</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>botola-pro</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>45277.83333333334</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Youssoufia Berrechid</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Moghreb Tetouan</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>16/12/2023 08:13</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>17/12/2023 19:59</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>16/12/2023 08:13</t>
+        </is>
+      </c>
+      <c r="P92" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>17/12/2023 19:59</t>
+        </is>
+      </c>
+      <c r="R92" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>16/12/2023 08:13</t>
+        </is>
+      </c>
+      <c r="T92" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>17/12/2023 19:59</t>
+        </is>
+      </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/youssoufia-berrechid-moghreb-tetouan/EyGYYVjO/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/morocco_botola-pro_2023-2024.xlsx
+++ b/2023/morocco_botola-pro_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V92"/>
+  <dimension ref="A1:V103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Renaissance Zemamra</t>
+          <t>Berkane</t>
         </is>
       </c>
       <c r="G47" t="n">
@@ -4721,14 +4721,14 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Olympique de Safi</t>
+          <t>Youssoufia Berrechid</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>2.98</v>
+        <v>1.39</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4736,15 +4736,15 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>3.95</v>
+        <v>1.33</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>08/10/2023 19:14</t>
+          <t>08/10/2023 18:54</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>2.85</v>
+        <v>4.21</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4752,15 +4752,15 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>2.75</v>
+        <v>4.64</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>08/10/2023 19:14</t>
+          <t>08/10/2023 18:54</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>2.5</v>
+        <v>7.84</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
@@ -4768,16 +4768,16 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>2.2</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>08/10/2023 19:14</t>
+          <t>08/10/2023 18:54</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/morocco/botola-pro/renaissance-zemamra-olympique-de-safi/xSSTnVt3/</t>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/berkane-youssoufia-berrechid/W2sXokd9/</t>
         </is>
       </c>
     </row>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Berkane</t>
+          <t>Renaissance Zemamra</t>
         </is>
       </c>
       <c r="G48" t="n">
@@ -4813,14 +4813,14 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Youssoufia Berrechid</t>
+          <t>Olympique de Safi</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J48" t="n">
-        <v>1.39</v>
+        <v>2.98</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>1.33</v>
+        <v>3.95</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>08/10/2023 18:54</t>
+          <t>08/10/2023 19:14</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>4.21</v>
+        <v>2.85</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>4.64</v>
+        <v>2.75</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>08/10/2023 18:54</t>
+          <t>08/10/2023 19:14</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>7.84</v>
+        <v>2.5</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>9.800000000000001</v>
+        <v>2.2</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>08/10/2023 18:54</t>
+          <t>08/10/2023 19:14</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/morocco/botola-pro/berkane-youssoufia-berrechid/W2sXokd9/</t>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/renaissance-zemamra-olympique-de-safi/xSSTnVt3/</t>
         </is>
       </c>
     </row>
@@ -8918,6 +8918,1018 @@
       <c r="V92" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/morocco/botola-pro/youssoufia-berrechid-moghreb-tetouan/EyGYYVjO/</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>morocco</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>botola-pro</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>45283.75</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Wydad</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>1</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Youssoufia Berrechid</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>11/11/2023 08:43</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>23/12/2023 17:59</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>11/11/2023 08:43</t>
+        </is>
+      </c>
+      <c r="P93" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>23/12/2023 17:59</t>
+        </is>
+      </c>
+      <c r="R93" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>11/11/2023 08:43</t>
+        </is>
+      </c>
+      <c r="T93" t="n">
+        <v>13.18</v>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>23/12/2023 17:59</t>
+        </is>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/wydad-athletic-youssoufia-berrechid/MsNTL6p2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>morocco</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>botola-pro</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>45284.75</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Berkane</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>1</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Raja Casablanca</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>23/12/2023 04:41</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>24/12/2023 17:59</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>23/12/2023 04:41</t>
+        </is>
+      </c>
+      <c r="P94" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>24/12/2023 17:59</t>
+        </is>
+      </c>
+      <c r="R94" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>23/12/2023 04:41</t>
+        </is>
+      </c>
+      <c r="T94" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>24/12/2023 17:59</t>
+        </is>
+      </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/berkane-raja-casablanca/hSExYk6U/</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>morocco</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>botola-pro</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>45286.75</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Hassania Agadir</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Wydad</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>24/12/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>26/12/2023 17:58</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>24/12/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P95" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>26/12/2023 17:58</t>
+        </is>
+      </c>
+      <c r="R95" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>24/12/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T95" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>26/12/2023 17:58</t>
+        </is>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/hassania-agadir-wydad-athletic/OrR832sa/</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>morocco</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>botola-pro</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>45288.66666666666</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>FUS Rabat</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>1</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Youssoufia Berrechid</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>1</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>27/12/2023 04:12</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>28/12/2023 15:52</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>27/12/2023 04:12</t>
+        </is>
+      </c>
+      <c r="P96" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>28/12/2023 15:52</t>
+        </is>
+      </c>
+      <c r="R96" t="n">
+        <v>5.53</v>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>27/12/2023 04:12</t>
+        </is>
+      </c>
+      <c r="T96" t="n">
+        <v>8.51</v>
+      </c>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>28/12/2023 15:52</t>
+        </is>
+      </c>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/fus-rabat-youssoufia-berrechid/QyRxAzJ9/</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>morocco</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>botola-pro</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>45288.66666666666</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Raja Casablanca</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>6</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>IR Tanger</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>1</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>27/12/2023 04:12</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>28/12/2023 15:34</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>27/12/2023 04:12</t>
+        </is>
+      </c>
+      <c r="P97" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>28/12/2023 15:50</t>
+        </is>
+      </c>
+      <c r="R97" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>27/12/2023 04:12</t>
+        </is>
+      </c>
+      <c r="T97" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>28/12/2023 15:50</t>
+        </is>
+      </c>
+      <c r="V97" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/raja-casablanca-ir-tanger/4SPt9fYF/</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>morocco</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>botola-pro</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>45288.75</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Chabab Mohammedia</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>1</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Berkane</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>27/12/2023 06:12</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>7.16</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>28/12/2023 17:57</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
+        <v>3</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>27/12/2023 06:12</t>
+        </is>
+      </c>
+      <c r="P98" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>28/12/2023 17:58</t>
+        </is>
+      </c>
+      <c r="R98" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>27/12/2023 06:12</t>
+        </is>
+      </c>
+      <c r="T98" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>28/12/2023 17:57</t>
+        </is>
+      </c>
+      <c r="V98" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/chabab-mohammedia-berkane/Y1Up8EmM/</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>morocco</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>botola-pro</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>45288.83333333334</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Moghreb Tetouan</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>1</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Union Touarga</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>27/12/2023 08:12</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>28/12/2023 19:53</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>27/12/2023 08:12</t>
+        </is>
+      </c>
+      <c r="P99" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>28/12/2023 19:41</t>
+        </is>
+      </c>
+      <c r="R99" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>27/12/2023 08:12</t>
+        </is>
+      </c>
+      <c r="T99" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="U99" t="inlineStr">
+        <is>
+          <t>28/12/2023 19:53</t>
+        </is>
+      </c>
+      <c r="V99" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/moghreb-tetouan-union-touarga/ChTl7Y2S/</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>morocco</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>botola-pro</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>45289.66666666666</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Renaissance Zemamra</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Mouloudia Oujda</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>1</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>28/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>29/12/2023 15:17</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>28/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P100" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>29/12/2023 15:17</t>
+        </is>
+      </c>
+      <c r="R100" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>28/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T100" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>29/12/2023 15:16</t>
+        </is>
+      </c>
+      <c r="V100" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/renaissance-zemamra-mouloudia-oujda/IZ5H2hBq/</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>morocco</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>botola-pro</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>45289.75</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Hassania Agadir</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>2</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Maghreb Fez</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>1</v>
+      </c>
+      <c r="J101" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>28/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>29/12/2023 17:59</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>28/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P101" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>29/12/2023 17:59</t>
+        </is>
+      </c>
+      <c r="R101" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>28/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T101" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="U101" t="inlineStr">
+        <is>
+          <t>29/12/2023 17:57</t>
+        </is>
+      </c>
+      <c r="V101" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/hassania-agadir-maghreb-fez/U99L1CQk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>morocco</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>botola-pro</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>45289.75</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Olympique de Safi</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>2</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Wydad</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>1</v>
+      </c>
+      <c r="J102" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>28/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>29/12/2023 17:57</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>28/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P102" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>29/12/2023 17:51</t>
+        </is>
+      </c>
+      <c r="R102" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>28/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T102" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U102" t="inlineStr">
+        <is>
+          <t>29/12/2023 17:57</t>
+        </is>
+      </c>
+      <c r="V102" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/olympique-de-safi-wydad-athletic/OW8P0Wud/</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>morocco</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>botola-pro</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>45289.83333333334</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Jeunesse Sportive Soualem</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>2</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>FAR Rabat</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>2</v>
+      </c>
+      <c r="J103" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>28/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>29/12/2023 19:56</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>28/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P103" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>29/12/2023 19:56</t>
+        </is>
+      </c>
+      <c r="R103" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>28/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T103" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U103" t="inlineStr">
+        <is>
+          <t>29/12/2023 19:56</t>
+        </is>
+      </c>
+      <c r="V103" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/jeunesse-sportive-soualem-far-rabat/2N7Taje2/</t>
         </is>
       </c>
     </row>

--- a/2023/morocco_botola-pro_2023-2024.xlsx
+++ b/2023/morocco_botola-pro_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V103"/>
+  <dimension ref="A1:V107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9933,6 +9933,374 @@
         </is>
       </c>
     </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>morocco</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>botola-pro</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>45294.66666666666</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Wydad</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Raja Casablanca</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>2</v>
+      </c>
+      <c r="J104" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>02/01/2024 04:12</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>03/01/2024 15:58</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>02/01/2024 04:12</t>
+        </is>
+      </c>
+      <c r="P104" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>03/01/2024 15:57</t>
+        </is>
+      </c>
+      <c r="R104" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="S104" t="inlineStr">
+        <is>
+          <t>02/01/2024 04:12</t>
+        </is>
+      </c>
+      <c r="T104" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="U104" t="inlineStr">
+        <is>
+          <t>03/01/2024 15:58</t>
+        </is>
+      </c>
+      <c r="V104" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/wydad-athletic-raja-casablanca/GzVTUC41/</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>morocco</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>botola-pro</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>45294.75</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Mouloudia Oujda</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>2</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>FUS Rabat</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>1</v>
+      </c>
+      <c r="J105" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>02/01/2024 06:12</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>03/01/2024 17:59</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>02/01/2024 06:12</t>
+        </is>
+      </c>
+      <c r="P105" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>03/01/2024 17:59</t>
+        </is>
+      </c>
+      <c r="R105" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="S105" t="inlineStr">
+        <is>
+          <t>02/01/2024 06:12</t>
+        </is>
+      </c>
+      <c r="T105" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="U105" t="inlineStr">
+        <is>
+          <t>03/01/2024 17:59</t>
+        </is>
+      </c>
+      <c r="V105" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/mouloudia-oujda-fus-rabat/UwZXTWJ7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>morocco</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>botola-pro</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>45294.83333333334</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>IR Tanger</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>1</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Renaissance Zemamra</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>1</v>
+      </c>
+      <c r="J106" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>02/01/2024 08:12</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>03/01/2024 19:59</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>02/01/2024 08:12</t>
+        </is>
+      </c>
+      <c r="P106" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>03/01/2024 19:59</t>
+        </is>
+      </c>
+      <c r="R106" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="S106" t="inlineStr">
+        <is>
+          <t>02/01/2024 08:12</t>
+        </is>
+      </c>
+      <c r="T106" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="U106" t="inlineStr">
+        <is>
+          <t>03/01/2024 19:59</t>
+        </is>
+      </c>
+      <c r="V106" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/ir-tanger-renaissance-zemamra/rsNFhGd8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>morocco</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>botola-pro</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>45294.83333333334</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Maghreb Fez</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>2</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Chabab Mohammedia</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>1</v>
+      </c>
+      <c r="J107" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>02/01/2024 08:12</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>2</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>03/01/2024 19:52</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>02/01/2024 08:12</t>
+        </is>
+      </c>
+      <c r="P107" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>03/01/2024 19:58</t>
+        </is>
+      </c>
+      <c r="R107" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="S107" t="inlineStr">
+        <is>
+          <t>02/01/2024 08:12</t>
+        </is>
+      </c>
+      <c r="T107" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="U107" t="inlineStr">
+        <is>
+          <t>03/01/2024 19:58</t>
+        </is>
+      </c>
+      <c r="V107" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/maghreb-fez-chabab-mohammedia/MXLJizCE/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/morocco_botola-pro_2023-2024.xlsx
+++ b/2023/morocco_botola-pro_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V107"/>
+  <dimension ref="A1:V111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1493,22 +1493,22 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Mouloudia Oujda</t>
+          <t>Moghreb Tetouan</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Union Touarga</t>
+          <t>Olympique de Safi</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>2.25</v>
+        <v>3.02</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1516,15 +1516,15 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>2.83</v>
+        <v>3.59</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>02/09/2023 21:14</t>
+          <t>02/09/2023 21:20</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>3.04</v>
+        <v>2.8</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1532,15 +1532,15 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>2.52</v>
+        <v>2.75</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>02/09/2023 21:14</t>
+          <t>02/09/2023 21:20</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>3.02</v>
+        <v>2.4</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
@@ -1548,16 +1548,16 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>3.11</v>
+        <v>2.33</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>02/09/2023 21:14</t>
+          <t>02/09/2023 21:20</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/morocco/botola-pro/mouloudia-oujda-union-touarga/4dV07lLh/</t>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/moghreb-tetouan-olympique-de-safi/Q5Wd8U5n/</t>
         </is>
       </c>
     </row>
@@ -1585,71 +1585,71 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Moghreb Tetouan</t>
+          <t>Mouloudia Oujda</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Olympique de Safi</t>
+          <t>Union Touarga</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J13" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>01/09/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>02/09/2023 21:14</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>01/09/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P13" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>02/09/2023 21:14</t>
+        </is>
+      </c>
+      <c r="R13" t="n">
         <v>3.02</v>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="S13" t="inlineStr">
         <is>
           <t>01/09/2023 16:42</t>
         </is>
       </c>
-      <c r="L13" t="n">
-        <v>3.59</v>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>02/09/2023 21:20</t>
-        </is>
-      </c>
-      <c r="N13" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>01/09/2023 16:42</t>
-        </is>
-      </c>
-      <c r="P13" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>02/09/2023 21:20</t>
-        </is>
-      </c>
-      <c r="R13" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>01/09/2023 16:42</t>
-        </is>
-      </c>
       <c r="T13" t="n">
-        <v>2.33</v>
+        <v>3.11</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>02/09/2023 21:20</t>
+          <t>02/09/2023 21:14</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/morocco/botola-pro/moghreb-tetouan-olympique-de-safi/Q5Wd8U5n/</t>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/mouloudia-oujda-union-touarga/4dV07lLh/</t>
         </is>
       </c>
     </row>
@@ -9221,22 +9221,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>FUS Rabat</t>
+          <t>Raja Casablanca</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Youssoufia Berrechid</t>
+          <t>IR Tanger</t>
         </is>
       </c>
       <c r="I96" t="n">
         <v>1</v>
       </c>
       <c r="J96" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,15 +9244,15 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>28/12/2023 15:52</t>
+          <t>28/12/2023 15:34</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.34</v>
+        <v>3.6</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -9260,15 +9260,15 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.91</v>
+        <v>4.4</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>28/12/2023 15:52</t>
+          <t>28/12/2023 15:50</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>5.53</v>
+        <v>5.67</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
@@ -9276,16 +9276,16 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>8.51</v>
+        <v>9.4</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>28/12/2023 15:52</t>
+          <t>28/12/2023 15:50</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/morocco/botola-pro/fus-rabat-youssoufia-berrechid/QyRxAzJ9/</t>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/raja-casablanca-ir-tanger/4SPt9fYF/</t>
         </is>
       </c>
     </row>
@@ -9313,22 +9313,22 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Raja Casablanca</t>
+          <t>FUS Rabat</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>IR Tanger</t>
+          <t>Youssoufia Berrechid</t>
         </is>
       </c>
       <c r="I97" t="n">
         <v>1</v>
       </c>
       <c r="J97" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -9336,15 +9336,15 @@
         </is>
       </c>
       <c r="L97" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>28/12/2023 15:34</t>
+          <t>28/12/2023 15:52</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>3.6</v>
+        <v>3.34</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -9352,15 +9352,15 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>4.4</v>
+        <v>3.91</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>28/12/2023 15:50</t>
+          <t>28/12/2023 15:52</t>
         </is>
       </c>
       <c r="R97" t="n">
-        <v>5.67</v>
+        <v>5.53</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
@@ -9368,16 +9368,16 @@
         </is>
       </c>
       <c r="T97" t="n">
-        <v>9.4</v>
+        <v>8.51</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>28/12/2023 15:50</t>
+          <t>28/12/2023 15:52</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/morocco/botola-pro/raja-casablanca-ir-tanger/4SPt9fYF/</t>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/fus-rabat-youssoufia-berrechid/QyRxAzJ9/</t>
         </is>
       </c>
     </row>
@@ -9681,7 +9681,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Hassania Agadir</t>
+          <t>Olympique de Safi</t>
         </is>
       </c>
       <c r="G101" t="n">
@@ -9689,14 +9689,14 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Maghreb Fez</t>
+          <t>Wydad</t>
         </is>
       </c>
       <c r="I101" t="n">
         <v>1</v>
       </c>
       <c r="J101" t="n">
-        <v>2.85</v>
+        <v>3.76</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -9704,15 +9704,15 @@
         </is>
       </c>
       <c r="L101" t="n">
-        <v>2.55</v>
+        <v>4.17</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>29/12/2023 17:59</t>
+          <t>29/12/2023 17:57</t>
         </is>
       </c>
       <c r="N101" t="n">
-        <v>2.71</v>
+        <v>2.91</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -9720,15 +9720,15 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>2.71</v>
+        <v>2.89</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>29/12/2023 17:59</t>
+          <t>29/12/2023 17:51</t>
         </is>
       </c>
       <c r="R101" t="n">
-        <v>2.59</v>
+        <v>2.01</v>
       </c>
       <c r="S101" t="inlineStr">
         <is>
@@ -9736,7 +9736,7 @@
         </is>
       </c>
       <c r="T101" t="n">
-        <v>3.22</v>
+        <v>2.06</v>
       </c>
       <c r="U101" t="inlineStr">
         <is>
@@ -9745,7 +9745,7 @@
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/morocco/botola-pro/hassania-agadir-maghreb-fez/U99L1CQk/</t>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/olympique-de-safi-wydad-athletic/OW8P0Wud/</t>
         </is>
       </c>
     </row>
@@ -9773,7 +9773,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Olympique de Safi</t>
+          <t>Hassania Agadir</t>
         </is>
       </c>
       <c r="G102" t="n">
@@ -9781,14 +9781,14 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Wydad</t>
+          <t>Maghreb Fez</t>
         </is>
       </c>
       <c r="I102" t="n">
         <v>1</v>
       </c>
       <c r="J102" t="n">
-        <v>3.76</v>
+        <v>2.85</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -9796,48 +9796,48 @@
         </is>
       </c>
       <c r="L102" t="n">
-        <v>4.17</v>
+        <v>2.55</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
+          <t>29/12/2023 17:59</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>28/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P102" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>29/12/2023 17:59</t>
+        </is>
+      </c>
+      <c r="R102" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>28/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T102" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="U102" t="inlineStr">
+        <is>
           <t>29/12/2023 17:57</t>
         </is>
       </c>
-      <c r="N102" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="O102" t="inlineStr">
-        <is>
-          <t>28/12/2023 02:12</t>
-        </is>
-      </c>
-      <c r="P102" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="Q102" t="inlineStr">
-        <is>
-          <t>29/12/2023 17:51</t>
-        </is>
-      </c>
-      <c r="R102" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="S102" t="inlineStr">
-        <is>
-          <t>28/12/2023 02:12</t>
-        </is>
-      </c>
-      <c r="T102" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="U102" t="inlineStr">
-        <is>
-          <t>29/12/2023 17:57</t>
-        </is>
-      </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/morocco/botola-pro/olympique-de-safi-wydad-athletic/OW8P0Wud/</t>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/hassania-agadir-maghreb-fez/U99L1CQk/</t>
         </is>
       </c>
     </row>
@@ -10298,6 +10298,374 @@
       <c r="V107" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/morocco/botola-pro/maghreb-fez-chabab-mohammedia/MXLJizCE/</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>morocco</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>botola-pro</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>45295.66666666666</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Union Touarga</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>1</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Olympique de Safi</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>02/01/2024 16:12</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>04/01/2024 15:56</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>02/01/2024 16:12</t>
+        </is>
+      </c>
+      <c r="P108" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>04/01/2024 15:54</t>
+        </is>
+      </c>
+      <c r="R108" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="S108" t="inlineStr">
+        <is>
+          <t>02/01/2024 16:12</t>
+        </is>
+      </c>
+      <c r="T108" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U108" t="inlineStr">
+        <is>
+          <t>04/01/2024 15:56</t>
+        </is>
+      </c>
+      <c r="V108" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/union-touarga-olympique-de-safi/xrulz8ts/</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>morocco</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>botola-pro</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>45295.75</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Berkane</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>3</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Jeunesse Sportive Soualem</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>1</v>
+      </c>
+      <c r="J109" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>02/01/2024 18:12</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>04/01/2024 17:58</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>02/01/2024 18:12</t>
+        </is>
+      </c>
+      <c r="P109" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>04/01/2024 17:58</t>
+        </is>
+      </c>
+      <c r="R109" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="S109" t="inlineStr">
+        <is>
+          <t>02/01/2024 18:12</t>
+        </is>
+      </c>
+      <c r="T109" t="n">
+        <v>9.119999999999999</v>
+      </c>
+      <c r="U109" t="inlineStr">
+        <is>
+          <t>04/01/2024 17:58</t>
+        </is>
+      </c>
+      <c r="V109" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/berkane-jeunesse-sportive-soualem/AewdYoBg/</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>morocco</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>botola-pro</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>45295.75</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Youssoufia Berrechid</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>1</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Hassania Agadir</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
+        <v>2</v>
+      </c>
+      <c r="J110" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>02/01/2024 18:12</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>04/01/2024 17:59</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>02/01/2024 18:12</t>
+        </is>
+      </c>
+      <c r="P110" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="Q110" t="inlineStr">
+        <is>
+          <t>04/01/2024 17:58</t>
+        </is>
+      </c>
+      <c r="R110" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="S110" t="inlineStr">
+        <is>
+          <t>02/01/2024 18:12</t>
+        </is>
+      </c>
+      <c r="T110" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="U110" t="inlineStr">
+        <is>
+          <t>04/01/2024 17:59</t>
+        </is>
+      </c>
+      <c r="V110" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/youssoufia-berrechid-hassania-agadir/GYwhZRem/</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>morocco</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>botola-pro</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>45295.83333333334</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>FAR Rabat</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>3</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Moghreb Tetouan</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>02/01/2024 20:12</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>04/01/2024 19:53</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>02/01/2024 20:12</t>
+        </is>
+      </c>
+      <c r="P111" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>04/01/2024 19:59</t>
+        </is>
+      </c>
+      <c r="R111" t="n">
+        <v>7.37</v>
+      </c>
+      <c r="S111" t="inlineStr">
+        <is>
+          <t>02/01/2024 20:12</t>
+        </is>
+      </c>
+      <c r="T111" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="U111" t="inlineStr">
+        <is>
+          <t>04/01/2024 19:59</t>
+        </is>
+      </c>
+      <c r="V111" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/far-rabat-moghreb-tetouan/MVt0X5Qa/</t>
         </is>
       </c>
     </row>

--- a/2023/morocco_botola-pro_2023-2024.xlsx
+++ b/2023/morocco_botola-pro_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V111"/>
+  <dimension ref="A1:V113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1493,71 +1493,71 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Moghreb Tetouan</t>
+          <t>Mouloudia Oujda</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Olympique de Safi</t>
+          <t>Union Touarga</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J12" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>01/09/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>02/09/2023 21:14</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>01/09/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P12" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>02/09/2023 21:14</t>
+        </is>
+      </c>
+      <c r="R12" t="n">
         <v>3.02</v>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>01/09/2023 16:42</t>
         </is>
       </c>
-      <c r="L12" t="n">
-        <v>3.59</v>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>02/09/2023 21:20</t>
-        </is>
-      </c>
-      <c r="N12" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>01/09/2023 16:42</t>
-        </is>
-      </c>
-      <c r="P12" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>02/09/2023 21:20</t>
-        </is>
-      </c>
-      <c r="R12" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>01/09/2023 16:42</t>
-        </is>
-      </c>
       <c r="T12" t="n">
-        <v>2.33</v>
+        <v>3.11</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>02/09/2023 21:20</t>
+          <t>02/09/2023 21:14</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/morocco/botola-pro/moghreb-tetouan-olympique-de-safi/Q5Wd8U5n/</t>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/mouloudia-oujda-union-touarga/4dV07lLh/</t>
         </is>
       </c>
     </row>
@@ -1585,22 +1585,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Mouloudia Oujda</t>
+          <t>Moghreb Tetouan</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Union Touarga</t>
+          <t>Olympique de Safi</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>2.25</v>
+        <v>3.02</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1608,15 +1608,15 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>2.83</v>
+        <v>3.59</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>02/09/2023 21:14</t>
+          <t>02/09/2023 21:20</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.04</v>
+        <v>2.8</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1624,15 +1624,15 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>2.52</v>
+        <v>2.75</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>02/09/2023 21:14</t>
+          <t>02/09/2023 21:20</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>3.02</v>
+        <v>2.4</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
@@ -1640,16 +1640,16 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>3.11</v>
+        <v>2.33</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>02/09/2023 21:14</t>
+          <t>02/09/2023 21:20</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/morocco/botola-pro/mouloudia-oujda-union-touarga/4dV07lLh/</t>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/moghreb-tetouan-olympique-de-safi/Q5Wd8U5n/</t>
         </is>
       </c>
     </row>
@@ -1769,22 +1769,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>FUS Rabat</t>
+          <t>Berkane</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Maghreb Fez</t>
+          <t>IR Tanger</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>1.73</v>
+        <v>1.98</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.85</v>
+        <v>1.56</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>03/09/2023 20:10</t>
+          <t>03/09/2023 20:08</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.23</v>
+        <v>3.11</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,15 +1808,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>2.83</v>
+        <v>3.59</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>03/09/2023 20:10</t>
+          <t>03/09/2023 20:08</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>5.25</v>
+        <v>3.96</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>5.19</v>
+        <v>6.56</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>03/09/2023 20:10</t>
+          <t>03/09/2023 20:08</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/morocco/botola-pro/fus-rabat-maghreb-fez/Obo25Sk5/</t>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/berkane-ir-tanger/ILp64n5B/</t>
         </is>
       </c>
     </row>
@@ -1861,22 +1861,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Berkane</t>
+          <t>FUS Rabat</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>IR Tanger</t>
+          <t>Maghreb Fez</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1.98</v>
+        <v>1.73</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,15 +1884,15 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1.56</v>
+        <v>1.85</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>03/09/2023 20:08</t>
+          <t>03/09/2023 20:10</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.11</v>
+        <v>3.23</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,15 +1900,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.59</v>
+        <v>2.83</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>03/09/2023 20:08</t>
+          <t>03/09/2023 20:10</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>3.96</v>
+        <v>5.25</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>6.56</v>
+        <v>5.19</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>03/09/2023 20:08</t>
+          <t>03/09/2023 20:10</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/morocco/botola-pro/berkane-ir-tanger/ILp64n5B/</t>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/fus-rabat-maghreb-fez/Obo25Sk5/</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Berkane</t>
+          <t>Renaissance Zemamra</t>
         </is>
       </c>
       <c r="G47" t="n">
@@ -4721,14 +4721,14 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Youssoufia Berrechid</t>
+          <t>Olympique de Safi</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J47" t="n">
-        <v>1.39</v>
+        <v>2.98</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4736,15 +4736,15 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>1.33</v>
+        <v>3.95</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>08/10/2023 18:54</t>
+          <t>08/10/2023 19:14</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>4.21</v>
+        <v>2.85</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4752,15 +4752,15 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>4.64</v>
+        <v>2.75</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>08/10/2023 18:54</t>
+          <t>08/10/2023 19:14</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>7.84</v>
+        <v>2.5</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
@@ -4768,16 +4768,16 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>9.800000000000001</v>
+        <v>2.2</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>08/10/2023 18:54</t>
+          <t>08/10/2023 19:14</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/morocco/botola-pro/berkane-youssoufia-berrechid/W2sXokd9/</t>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/renaissance-zemamra-olympique-de-safi/xSSTnVt3/</t>
         </is>
       </c>
     </row>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Renaissance Zemamra</t>
+          <t>Berkane</t>
         </is>
       </c>
       <c r="G48" t="n">
@@ -4813,14 +4813,14 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Olympique de Safi</t>
+          <t>Youssoufia Berrechid</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>2.98</v>
+        <v>1.39</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>3.95</v>
+        <v>1.33</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>08/10/2023 19:14</t>
+          <t>08/10/2023 18:54</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>2.85</v>
+        <v>4.21</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>2.75</v>
+        <v>4.64</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>08/10/2023 19:14</t>
+          <t>08/10/2023 18:54</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>2.5</v>
+        <v>7.84</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>2.2</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>08/10/2023 19:14</t>
+          <t>08/10/2023 18:54</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/morocco/botola-pro/renaissance-zemamra-olympique-de-safi/xSSTnVt3/</t>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/berkane-youssoufia-berrechid/W2sXokd9/</t>
         </is>
       </c>
     </row>
@@ -10666,6 +10666,190 @@
       <c r="V111" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/morocco/botola-pro/far-rabat-moghreb-tetouan/MVt0X5Qa/</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>morocco</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>botola-pro</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>45297.75</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Raja Casablanca</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>2</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Mouloudia Oujda</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>04/01/2024 23:42</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>06/01/2024 17:58</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>04/01/2024 23:42</t>
+        </is>
+      </c>
+      <c r="P112" t="n">
+        <v>6.41</v>
+      </c>
+      <c r="Q112" t="inlineStr">
+        <is>
+          <t>06/01/2024 17:58</t>
+        </is>
+      </c>
+      <c r="R112" t="n">
+        <v>13.34</v>
+      </c>
+      <c r="S112" t="inlineStr">
+        <is>
+          <t>04/01/2024 23:42</t>
+        </is>
+      </c>
+      <c r="T112" t="n">
+        <v>17.68</v>
+      </c>
+      <c r="U112" t="inlineStr">
+        <is>
+          <t>06/01/2024 17:58</t>
+        </is>
+      </c>
+      <c r="V112" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/raja-casablanca-mouloudia-oujda/roV8VqeC/</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>morocco</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>botola-pro</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>45297.83333333334</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Chabab Mohammedia</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>1</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>IR Tanger</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>04/01/2024 23:42</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>06/01/2024 19:50</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>04/01/2024 23:42</t>
+        </is>
+      </c>
+      <c r="P113" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Q113" t="inlineStr">
+        <is>
+          <t>06/01/2024 19:52</t>
+        </is>
+      </c>
+      <c r="R113" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="S113" t="inlineStr">
+        <is>
+          <t>04/01/2024 23:42</t>
+        </is>
+      </c>
+      <c r="T113" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="U113" t="inlineStr">
+        <is>
+          <t>06/01/2024 19:52</t>
+        </is>
+      </c>
+      <c r="V113" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/chabab-mohammedia-ir-tanger/4fW4WPu6/</t>
         </is>
       </c>
     </row>

--- a/2023/morocco_botola-pro_2023-2024.xlsx
+++ b/2023/morocco_botola-pro_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V113"/>
+  <dimension ref="A1:V115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1769,22 +1769,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Berkane</t>
+          <t>FUS Rabat</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>IR Tanger</t>
+          <t>Maghreb Fez</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.98</v>
+        <v>1.73</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.56</v>
+        <v>1.85</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>03/09/2023 20:08</t>
+          <t>03/09/2023 20:10</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.11</v>
+        <v>3.23</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,15 +1808,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.59</v>
+        <v>2.83</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>03/09/2023 20:08</t>
+          <t>03/09/2023 20:10</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>3.96</v>
+        <v>5.25</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>6.56</v>
+        <v>5.19</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>03/09/2023 20:08</t>
+          <t>03/09/2023 20:10</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/morocco/botola-pro/berkane-ir-tanger/ILp64n5B/</t>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/fus-rabat-maghreb-fez/Obo25Sk5/</t>
         </is>
       </c>
     </row>
@@ -1861,22 +1861,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>FUS Rabat</t>
+          <t>Berkane</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Maghreb Fez</t>
+          <t>IR Tanger</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>1.73</v>
+        <v>1.98</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,15 +1884,15 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1.85</v>
+        <v>1.56</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>03/09/2023 20:10</t>
+          <t>03/09/2023 20:08</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.23</v>
+        <v>3.11</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,15 +1900,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>2.83</v>
+        <v>3.59</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>03/09/2023 20:10</t>
+          <t>03/09/2023 20:08</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>5.25</v>
+        <v>3.96</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>5.19</v>
+        <v>6.56</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>03/09/2023 20:10</t>
+          <t>03/09/2023 20:08</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/morocco/botola-pro/fus-rabat-maghreb-fez/Obo25Sk5/</t>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/berkane-ir-tanger/ILp64n5B/</t>
         </is>
       </c>
     </row>
@@ -7197,7 +7197,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>IR Tanger</t>
+          <t>Renaissance Zemamra</t>
         </is>
       </c>
       <c r="G74" t="n">
@@ -7205,14 +7205,14 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Moghreb Tetouan</t>
+          <t>Jeunesse Sportive Soualem</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>2.06</v>
+        <v>1.98</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,15 +7220,15 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>2.43</v>
+        <v>2.38</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>26/11/2023 15:41</t>
+          <t>26/11/2023 15:58</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>2.96</v>
+        <v>3.02</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -7236,15 +7236,15 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>2.9</v>
+        <v>2.71</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>26/11/2023 15:44</t>
+          <t>26/11/2023 15:58</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>3.43</v>
+        <v>3.72</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -7252,16 +7252,16 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>3.18</v>
+        <v>3.55</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>26/11/2023 15:41</t>
+          <t>26/11/2023 15:58</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/morocco/botola-pro/ir-tanger-moghreb-tetouan/25UlK8Um/</t>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/renaissance-zemamra-jeunesse-sportive-soualem/tdThJSqf/</t>
         </is>
       </c>
     </row>
@@ -7289,7 +7289,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Renaissance Zemamra</t>
+          <t>IR Tanger</t>
         </is>
       </c>
       <c r="G75" t="n">
@@ -7297,14 +7297,14 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Jeunesse Sportive Soualem</t>
+          <t>Moghreb Tetouan</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>1.98</v>
+        <v>2.06</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,15 +7312,15 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>26/11/2023 15:58</t>
+          <t>26/11/2023 15:41</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.02</v>
+        <v>2.96</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,15 +7328,15 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>2.71</v>
+        <v>2.9</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>26/11/2023 15:58</t>
+          <t>26/11/2023 15:44</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>3.72</v>
+        <v>3.43</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,16 +7344,16 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>3.55</v>
+        <v>3.18</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>26/11/2023 15:58</t>
+          <t>26/11/2023 15:41</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/morocco/botola-pro/renaissance-zemamra-jeunesse-sportive-soualem/tdThJSqf/</t>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/ir-tanger-moghreb-tetouan/25UlK8Um/</t>
         </is>
       </c>
     </row>
@@ -9221,22 +9221,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Raja Casablanca</t>
+          <t>FUS Rabat</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>IR Tanger</t>
+          <t>Youssoufia Berrechid</t>
         </is>
       </c>
       <c r="I96" t="n">
         <v>1</v>
       </c>
       <c r="J96" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,15 +9244,15 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>28/12/2023 15:34</t>
+          <t>28/12/2023 15:52</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.6</v>
+        <v>3.34</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -9260,15 +9260,15 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>4.4</v>
+        <v>3.91</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>28/12/2023 15:50</t>
+          <t>28/12/2023 15:52</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>5.67</v>
+        <v>5.53</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
@@ -9276,16 +9276,16 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>9.4</v>
+        <v>8.51</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>28/12/2023 15:50</t>
+          <t>28/12/2023 15:52</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/morocco/botola-pro/raja-casablanca-ir-tanger/4SPt9fYF/</t>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/fus-rabat-youssoufia-berrechid/QyRxAzJ9/</t>
         </is>
       </c>
     </row>
@@ -9313,22 +9313,22 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>FUS Rabat</t>
+          <t>Raja Casablanca</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Youssoufia Berrechid</t>
+          <t>IR Tanger</t>
         </is>
       </c>
       <c r="I97" t="n">
         <v>1</v>
       </c>
       <c r="J97" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -9336,15 +9336,15 @@
         </is>
       </c>
       <c r="L97" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>28/12/2023 15:52</t>
+          <t>28/12/2023 15:34</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>3.34</v>
+        <v>3.6</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -9352,15 +9352,15 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>3.91</v>
+        <v>4.4</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>28/12/2023 15:52</t>
+          <t>28/12/2023 15:50</t>
         </is>
       </c>
       <c r="R97" t="n">
-        <v>5.53</v>
+        <v>5.67</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
@@ -9368,16 +9368,16 @@
         </is>
       </c>
       <c r="T97" t="n">
-        <v>8.51</v>
+        <v>9.4</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>28/12/2023 15:52</t>
+          <t>28/12/2023 15:50</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/morocco/botola-pro/fus-rabat-youssoufia-berrechid/QyRxAzJ9/</t>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/raja-casablanca-ir-tanger/4SPt9fYF/</t>
         </is>
       </c>
     </row>
@@ -10850,6 +10850,190 @@
       <c r="V113" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/morocco/botola-pro/chabab-mohammedia-ir-tanger/4fW4WPu6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>morocco</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>botola-pro</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>45298.66666666666</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Hassania Agadir</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>3</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Union Touarga</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
+        <v>2</v>
+      </c>
+      <c r="J114" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>04/01/2024 23:42</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>07/01/2024 15:59</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>04/01/2024 23:42</t>
+        </is>
+      </c>
+      <c r="P114" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="Q114" t="inlineStr">
+        <is>
+          <t>07/01/2024 15:59</t>
+        </is>
+      </c>
+      <c r="R114" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="S114" t="inlineStr">
+        <is>
+          <t>04/01/2024 23:42</t>
+        </is>
+      </c>
+      <c r="T114" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="U114" t="inlineStr">
+        <is>
+          <t>07/01/2024 15:59</t>
+        </is>
+      </c>
+      <c r="V114" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/hassania-agadir-union-touarga/CKZCU3AI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>morocco</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>botola-pro</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>45298.66666666666</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Renaissance Zemamra</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>2</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Berkane</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
+        <v>1</v>
+      </c>
+      <c r="J115" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>04/01/2024 22:12</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>07/01/2024 15:57</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>04/01/2024 22:12</t>
+        </is>
+      </c>
+      <c r="P115" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="Q115" t="inlineStr">
+        <is>
+          <t>07/01/2024 15:57</t>
+        </is>
+      </c>
+      <c r="R115" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="S115" t="inlineStr">
+        <is>
+          <t>04/01/2024 22:12</t>
+        </is>
+      </c>
+      <c r="T115" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U115" t="inlineStr">
+        <is>
+          <t>07/01/2024 15:57</t>
+        </is>
+      </c>
+      <c r="V115" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/morocco/botola-pro/renaissance-zemamra-berkane/jBYGTNPO/</t>
         </is>
       </c>
     </row>
